--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{C5E48D96-7217-4D27-A409-2BA6892215D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE3A5F-6A08-4C9B-B715-2B6AA86C4F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -1286,6 +1286,28 @@
     <xf numFmtId="169" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="2" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="2" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="34" borderId="2" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="34" borderId="2" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1296,28 +1318,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="2" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="2" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="34" borderId="2" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="34" borderId="2" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1929,8 +1929,8 @@
   </sheetPr>
   <dimension ref="A1:BL38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:O2"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1956,11 +1956,11 @@
         <v>14</v>
       </c>
       <c r="D1" s="83"/>
-      <c r="E1" s="81">
+      <c r="E1" s="89">
         <f ca="1">TODAY()</f>
         <v>44490</v>
       </c>
-      <c r="F1" s="81"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
@@ -1971,88 +1971,88 @@
       </c>
       <c r="D2" s="83"/>
       <c r="E2" s="5">
-        <v>8</v>
-      </c>
-      <c r="I2" s="78">
+        <v>0</v>
+      </c>
+      <c r="I2" s="86">
         <f ca="1">I3</f>
-        <v>44536</v>
-      </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="78">
+        <v>44480</v>
+      </c>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="86">
         <f ca="1">P3</f>
-        <v>44543</v>
-      </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="78">
+        <v>44487</v>
+      </c>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="86">
         <f ca="1">W3</f>
-        <v>44550</v>
-      </c>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="78">
+        <v>44494</v>
+      </c>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="86">
         <f ca="1">AD3</f>
-        <v>44557</v>
-      </c>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="79"/>
-      <c r="AJ2" s="80"/>
-      <c r="AK2" s="78">
+        <v>44501</v>
+      </c>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="87"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="87"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="86">
         <f ca="1">AK3</f>
-        <v>44564</v>
-      </c>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="79"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="79"/>
-      <c r="AP2" s="79"/>
-      <c r="AQ2" s="80"/>
-      <c r="AR2" s="78">
+        <v>44508</v>
+      </c>
+      <c r="AL2" s="87"/>
+      <c r="AM2" s="87"/>
+      <c r="AN2" s="87"/>
+      <c r="AO2" s="87"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="88"/>
+      <c r="AR2" s="86">
         <f ca="1">AR3</f>
-        <v>44571</v>
-      </c>
-      <c r="AS2" s="79"/>
-      <c r="AT2" s="79"/>
-      <c r="AU2" s="79"/>
-      <c r="AV2" s="79"/>
-      <c r="AW2" s="79"/>
-      <c r="AX2" s="80"/>
-      <c r="AY2" s="78">
+        <v>44515</v>
+      </c>
+      <c r="AS2" s="87"/>
+      <c r="AT2" s="87"/>
+      <c r="AU2" s="87"/>
+      <c r="AV2" s="87"/>
+      <c r="AW2" s="87"/>
+      <c r="AX2" s="88"/>
+      <c r="AY2" s="86">
         <f ca="1">AY3</f>
-        <v>44578</v>
-      </c>
-      <c r="AZ2" s="79"/>
-      <c r="BA2" s="79"/>
-      <c r="BB2" s="79"/>
-      <c r="BC2" s="79"/>
-      <c r="BD2" s="79"/>
-      <c r="BE2" s="80"/>
-      <c r="BF2" s="78">
+        <v>44522</v>
+      </c>
+      <c r="AZ2" s="87"/>
+      <c r="BA2" s="87"/>
+      <c r="BB2" s="87"/>
+      <c r="BC2" s="87"/>
+      <c r="BD2" s="87"/>
+      <c r="BE2" s="88"/>
+      <c r="BF2" s="86">
         <f ca="1">BF3</f>
-        <v>44585</v>
-      </c>
-      <c r="BG2" s="79"/>
-      <c r="BH2" s="79"/>
-      <c r="BI2" s="79"/>
-      <c r="BJ2" s="79"/>
-      <c r="BK2" s="79"/>
-      <c r="BL2" s="80"/>
+        <v>44529</v>
+      </c>
+      <c r="BG2" s="87"/>
+      <c r="BH2" s="87"/>
+      <c r="BI2" s="87"/>
+      <c r="BJ2" s="87"/>
+      <c r="BK2" s="87"/>
+      <c r="BL2" s="88"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
@@ -2066,227 +2066,227 @@
       <c r="G3" s="85"/>
       <c r="I3" s="75">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44536</v>
+        <v>44480</v>
       </c>
       <c r="J3" s="76">
         <f ca="1">I3+1</f>
-        <v>44537</v>
+        <v>44481</v>
       </c>
       <c r="K3" s="76">
         <f t="shared" ref="K3:AX3" ca="1" si="0">J3+1</f>
-        <v>44538</v>
+        <v>44482</v>
       </c>
       <c r="L3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44539</v>
+        <v>44483</v>
       </c>
       <c r="M3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44540</v>
+        <v>44484</v>
       </c>
       <c r="N3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44541</v>
+        <v>44485</v>
       </c>
       <c r="O3" s="77">
         <f t="shared" ca="1" si="0"/>
-        <v>44542</v>
+        <v>44486</v>
       </c>
       <c r="P3" s="75">
         <f ca="1">O3+1</f>
-        <v>44543</v>
+        <v>44487</v>
       </c>
       <c r="Q3" s="76">
         <f ca="1">P3+1</f>
-        <v>44544</v>
+        <v>44488</v>
       </c>
       <c r="R3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44545</v>
+        <v>44489</v>
       </c>
       <c r="S3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44546</v>
+        <v>44490</v>
       </c>
       <c r="T3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44547</v>
+        <v>44491</v>
       </c>
       <c r="U3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44492</v>
       </c>
       <c r="V3" s="77">
         <f t="shared" ca="1" si="0"/>
-        <v>44549</v>
+        <v>44493</v>
       </c>
       <c r="W3" s="75">
         <f ca="1">V3+1</f>
-        <v>44550</v>
+        <v>44494</v>
       </c>
       <c r="X3" s="76">
         <f ca="1">W3+1</f>
-        <v>44551</v>
+        <v>44495</v>
       </c>
       <c r="Y3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44552</v>
+        <v>44496</v>
       </c>
       <c r="Z3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44553</v>
+        <v>44497</v>
       </c>
       <c r="AA3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44554</v>
+        <v>44498</v>
       </c>
       <c r="AB3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44555</v>
+        <v>44499</v>
       </c>
       <c r="AC3" s="77">
         <f t="shared" ca="1" si="0"/>
-        <v>44556</v>
+        <v>44500</v>
       </c>
       <c r="AD3" s="75">
         <f ca="1">AC3+1</f>
-        <v>44557</v>
+        <v>44501</v>
       </c>
       <c r="AE3" s="76">
         <f ca="1">AD3+1</f>
-        <v>44558</v>
+        <v>44502</v>
       </c>
       <c r="AF3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44559</v>
+        <v>44503</v>
       </c>
       <c r="AG3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44560</v>
+        <v>44504</v>
       </c>
       <c r="AH3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44561</v>
+        <v>44505</v>
       </c>
       <c r="AI3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
+        <v>44506</v>
       </c>
       <c r="AJ3" s="77">
         <f t="shared" ca="1" si="0"/>
-        <v>44563</v>
+        <v>44507</v>
       </c>
       <c r="AK3" s="75">
         <f ca="1">AJ3+1</f>
-        <v>44564</v>
+        <v>44508</v>
       </c>
       <c r="AL3" s="76">
         <f ca="1">AK3+1</f>
-        <v>44565</v>
+        <v>44509</v>
       </c>
       <c r="AM3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44566</v>
+        <v>44510</v>
       </c>
       <c r="AN3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44567</v>
+        <v>44511</v>
       </c>
       <c r="AO3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44568</v>
+        <v>44512</v>
       </c>
       <c r="AP3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44569</v>
+        <v>44513</v>
       </c>
       <c r="AQ3" s="77">
         <f t="shared" ca="1" si="0"/>
-        <v>44570</v>
+        <v>44514</v>
       </c>
       <c r="AR3" s="75">
         <f ca="1">AQ3+1</f>
-        <v>44571</v>
+        <v>44515</v>
       </c>
       <c r="AS3" s="76">
         <f ca="1">AR3+1</f>
-        <v>44572</v>
+        <v>44516</v>
       </c>
       <c r="AT3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44573</v>
+        <v>44517</v>
       </c>
       <c r="AU3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44574</v>
+        <v>44518</v>
       </c>
       <c r="AV3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44575</v>
+        <v>44519</v>
       </c>
       <c r="AW3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44576</v>
+        <v>44520</v>
       </c>
       <c r="AX3" s="77">
         <f t="shared" ca="1" si="0"/>
-        <v>44577</v>
+        <v>44521</v>
       </c>
       <c r="AY3" s="75">
         <f ca="1">AX3+1</f>
-        <v>44578</v>
+        <v>44522</v>
       </c>
       <c r="AZ3" s="76">
         <f ca="1">AY3+1</f>
-        <v>44579</v>
+        <v>44523</v>
       </c>
       <c r="BA3" s="76">
         <f t="shared" ref="BA3:BE3" ca="1" si="1">AZ3+1</f>
-        <v>44580</v>
+        <v>44524</v>
       </c>
       <c r="BB3" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>44581</v>
+        <v>44525</v>
       </c>
       <c r="BC3" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>44582</v>
+        <v>44526</v>
       </c>
       <c r="BD3" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>44583</v>
+        <v>44527</v>
       </c>
       <c r="BE3" s="77">
         <f t="shared" ca="1" si="1"/>
-        <v>44584</v>
+        <v>44528</v>
       </c>
       <c r="BF3" s="75">
         <f ca="1">BE3+1</f>
-        <v>44585</v>
+        <v>44529</v>
       </c>
       <c r="BG3" s="76">
         <f ca="1">BF3+1</f>
-        <v>44586</v>
+        <v>44530</v>
       </c>
       <c r="BH3" s="76">
         <f t="shared" ref="BH3:BL3" ca="1" si="2">BG3+1</f>
-        <v>44587</v>
+        <v>44531</v>
       </c>
       <c r="BI3" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>44588</v>
+        <v>44532</v>
       </c>
       <c r="BJ3" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44533</v>
       </c>
       <c r="BK3" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44534</v>
       </c>
       <c r="BL3" s="77">
         <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <v>44535</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2441,7 +2441,7 @@
         <v>D</v>
       </c>
       <c r="AO4" s="8" t="str">
-        <f t="shared" ref="AO4:BT4" ca="1" si="4">LEFT(TEXT(AO3,"TTT"),1)</f>
+        <f t="shared" ref="AO4:BL4" ca="1" si="4">LEFT(TEXT(AO3,"TTT"),1)</f>
         <v>F</v>
       </c>
       <c r="AP4" s="8" t="str">
@@ -4341,17 +4341,17 @@
     </row>
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
-      <c r="B29" s="86" t="s">
+      <c r="B29" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88">
+      <c r="C29" s="79"/>
+      <c r="D29" s="80">
         <v>0</v>
       </c>
-      <c r="E29" s="89">
+      <c r="E29" s="81">
         <v>44547</v>
       </c>
-      <c r="F29" s="89">
+      <c r="F29" s="81">
         <v>44588</v>
       </c>
       <c r="G29" s="12"/>
@@ -4418,17 +4418,17 @@
     </row>
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88">
+      <c r="C30" s="79"/>
+      <c r="D30" s="80">
         <v>0</v>
       </c>
-      <c r="E30" s="89">
+      <c r="E30" s="81">
         <v>44547</v>
       </c>
-      <c r="F30" s="89">
+      <c r="F30" s="81">
         <v>44588</v>
       </c>
       <c r="G30" s="12"/>
@@ -4495,17 +4495,17 @@
     </row>
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="42"/>
-      <c r="B31" s="86" t="s">
+      <c r="B31" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88">
+      <c r="C31" s="79"/>
+      <c r="D31" s="80">
         <v>0</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31" s="81">
         <v>44547</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="81">
         <v>44588</v>
       </c>
       <c r="G31" s="12"/>
@@ -4572,17 +4572,17 @@
     </row>
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="42"/>
-      <c r="B32" s="86" t="s">
+      <c r="B32" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88">
+      <c r="C32" s="79"/>
+      <c r="D32" s="80">
         <v>0</v>
       </c>
-      <c r="E32" s="89">
+      <c r="E32" s="81">
         <v>44547</v>
       </c>
-      <c r="F32" s="89">
+      <c r="F32" s="81">
         <v>44588</v>
       </c>
       <c r="G32" s="12"/>
@@ -4656,10 +4656,10 @@
       <c r="D33" s="24">
         <v>0</v>
       </c>
-      <c r="E33" s="89">
+      <c r="E33" s="81">
         <v>44547</v>
       </c>
-      <c r="F33" s="89">
+      <c r="F33" s="81">
         <v>44588</v>
       </c>
       <c r="G33" s="12"/>
@@ -4880,11 +4880,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -4892,6 +4887,11 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
   <conditionalFormatting sqref="D33:D35 D5:D26 D28">
     <cfRule type="dataBar" priority="17">

--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AE3A5F-6A08-4C9B-B715-2B6AA86C4F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0277EF29-ADA5-4BB2-9D9F-F1BFF2A436FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,6 +1298,18 @@
     <xf numFmtId="167" fontId="8" fillId="34" borderId="2" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1308,18 +1320,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1952,118 +1952,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="89">
+      <c r="D1" s="87"/>
+      <c r="E1" s="85">
         <f ca="1">TODAY()</f>
-        <v>44490</v>
-      </c>
-      <c r="F1" s="89"/>
+        <v>44491</v>
+      </c>
+      <c r="F1" s="85"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="83"/>
+      <c r="D2" s="87"/>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="86">
+      <c r="I2" s="82">
         <f ca="1">I3</f>
         <v>44480</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="86">
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="82">
         <f ca="1">P3</f>
         <v>44487</v>
       </c>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="86">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="82">
         <f ca="1">W3</f>
         <v>44494</v>
       </c>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="86">
+      <c r="X2" s="83"/>
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="82">
         <f ca="1">AD3</f>
         <v>44501</v>
       </c>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="87"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="87"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="86">
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="83"/>
+      <c r="AJ2" s="84"/>
+      <c r="AK2" s="82">
         <f ca="1">AK3</f>
         <v>44508</v>
       </c>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="87"/>
-      <c r="AQ2" s="88"/>
-      <c r="AR2" s="86">
+      <c r="AL2" s="83"/>
+      <c r="AM2" s="83"/>
+      <c r="AN2" s="83"/>
+      <c r="AO2" s="83"/>
+      <c r="AP2" s="83"/>
+      <c r="AQ2" s="84"/>
+      <c r="AR2" s="82">
         <f ca="1">AR3</f>
         <v>44515</v>
       </c>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="87"/>
-      <c r="AU2" s="87"/>
-      <c r="AV2" s="87"/>
-      <c r="AW2" s="87"/>
-      <c r="AX2" s="88"/>
-      <c r="AY2" s="86">
+      <c r="AS2" s="83"/>
+      <c r="AT2" s="83"/>
+      <c r="AU2" s="83"/>
+      <c r="AV2" s="83"/>
+      <c r="AW2" s="83"/>
+      <c r="AX2" s="84"/>
+      <c r="AY2" s="82">
         <f ca="1">AY3</f>
         <v>44522</v>
       </c>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87"/>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="88"/>
-      <c r="BF2" s="86">
+      <c r="AZ2" s="83"/>
+      <c r="BA2" s="83"/>
+      <c r="BB2" s="83"/>
+      <c r="BC2" s="83"/>
+      <c r="BD2" s="83"/>
+      <c r="BE2" s="84"/>
+      <c r="BF2" s="82">
         <f ca="1">BF3</f>
         <v>44529</v>
       </c>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="87"/>
-      <c r="BK2" s="87"/>
-      <c r="BL2" s="88"/>
+      <c r="BG2" s="83"/>
+      <c r="BH2" s="83"/>
+      <c r="BI2" s="83"/>
+      <c r="BJ2" s="83"/>
+      <c r="BK2" s="83"/>
+      <c r="BL2" s="84"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
       <c r="I3" s="75">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
         <v>44480</v>
@@ -4880,6 +4880,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -4887,11 +4892,6 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
   <conditionalFormatting sqref="D33:D35 D5:D26 D28">
     <cfRule type="dataBar" priority="17">

--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0277EF29-ADA5-4BB2-9D9F-F1BFF2A436FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2082CC-8EDD-4A0F-B5B1-5866DA3C86CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Geben Sie den Namen des Projektleiters in Zelle B3 ein. Geben Sie das Startdatum für das Projekt in Zelle E3 ein. Start des Projekts: Die Bezeichnung steht in Zelle C3.</t>
   </si>
@@ -226,27 +226,12 @@
     <t>LogIn</t>
   </si>
   <si>
-    <t>Startseite</t>
-  </si>
-  <si>
     <t>Registrierung</t>
   </si>
   <si>
-    <t>Artikelübersicht</t>
-  </si>
-  <si>
     <t>Warenkorb</t>
   </si>
   <si>
-    <t>Bestellung/Bezahlung</t>
-  </si>
-  <si>
-    <t>DropDown Menü</t>
-  </si>
-  <si>
-    <t>Suchergebnis</t>
-  </si>
-  <si>
     <t>Phase 3 Dynamischer Pototyp</t>
   </si>
   <si>
@@ -272,6 +257,36 @@
   </si>
   <si>
     <t>Datenbank erstellen</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Shoppingcard</t>
+  </si>
+  <si>
+    <t>Danke für den Kauf Seite</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Datenschutz</t>
+  </si>
+  <si>
+    <t>Impressum</t>
+  </si>
+  <si>
+    <t>About Us</t>
+  </si>
+  <si>
+    <t>Jana,Dean,Raphael,Daniela</t>
+  </si>
+  <si>
+    <t>Startseite/Suchergebnis</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1078,7 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1202,9 +1217,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1298,6 +1310,16 @@
     <xf numFmtId="167" fontId="8" fillId="34" borderId="2" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1310,16 +1332,24 @@
     <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="26" borderId="2" xfId="35" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="26" borderId="2" xfId="35" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1927,16 +1957,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:G3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A10" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.109375" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" style="3" customWidth="1"/>
@@ -1952,341 +1982,341 @@
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="85">
+      <c r="D1" s="82"/>
+      <c r="E1" s="88">
         <f ca="1">TODAY()</f>
-        <v>44491</v>
-      </c>
-      <c r="F1" s="85"/>
+        <v>44494</v>
+      </c>
+      <c r="F1" s="88"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="82">
+      <c r="I2" s="85">
         <f ca="1">I3</f>
-        <v>44480</v>
-      </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="82">
+        <v>44487</v>
+      </c>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="85">
         <f ca="1">P3</f>
-        <v>44487</v>
-      </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="82">
+        <v>44494</v>
+      </c>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="85">
         <f ca="1">W3</f>
-        <v>44494</v>
-      </c>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="82">
+        <v>44501</v>
+      </c>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="85">
         <f ca="1">AD3</f>
-        <v>44501</v>
-      </c>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="82">
+        <v>44508</v>
+      </c>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="86"/>
+      <c r="AJ2" s="87"/>
+      <c r="AK2" s="85">
         <f ca="1">AK3</f>
-        <v>44508</v>
-      </c>
-      <c r="AL2" s="83"/>
-      <c r="AM2" s="83"/>
-      <c r="AN2" s="83"/>
-      <c r="AO2" s="83"/>
-      <c r="AP2" s="83"/>
-      <c r="AQ2" s="84"/>
-      <c r="AR2" s="82">
+        <v>44515</v>
+      </c>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="86"/>
+      <c r="AQ2" s="87"/>
+      <c r="AR2" s="85">
         <f ca="1">AR3</f>
-        <v>44515</v>
-      </c>
-      <c r="AS2" s="83"/>
-      <c r="AT2" s="83"/>
-      <c r="AU2" s="83"/>
-      <c r="AV2" s="83"/>
-      <c r="AW2" s="83"/>
-      <c r="AX2" s="84"/>
-      <c r="AY2" s="82">
+        <v>44522</v>
+      </c>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="86"/>
+      <c r="AU2" s="86"/>
+      <c r="AV2" s="86"/>
+      <c r="AW2" s="86"/>
+      <c r="AX2" s="87"/>
+      <c r="AY2" s="85">
         <f ca="1">AY3</f>
-        <v>44522</v>
-      </c>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="84"/>
-      <c r="BF2" s="82">
+        <v>44529</v>
+      </c>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="86"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="87"/>
+      <c r="BF2" s="85">
         <f ca="1">BF3</f>
-        <v>44529</v>
-      </c>
-      <c r="BG2" s="83"/>
-      <c r="BH2" s="83"/>
-      <c r="BI2" s="83"/>
-      <c r="BJ2" s="83"/>
-      <c r="BK2" s="83"/>
-      <c r="BL2" s="84"/>
+        <v>44536</v>
+      </c>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="87"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="I3" s="75">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="I3" s="74">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44480</v>
-      </c>
-      <c r="J3" s="76">
+        <v>44487</v>
+      </c>
+      <c r="J3" s="75">
         <f ca="1">I3+1</f>
-        <v>44481</v>
-      </c>
-      <c r="K3" s="76">
+        <v>44488</v>
+      </c>
+      <c r="K3" s="75">
         <f t="shared" ref="K3:AX3" ca="1" si="0">J3+1</f>
-        <v>44482</v>
-      </c>
-      <c r="L3" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>44483</v>
-      </c>
-      <c r="M3" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>44484</v>
-      </c>
-      <c r="N3" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>44485</v>
-      </c>
-      <c r="O3" s="77">
-        <f t="shared" ca="1" si="0"/>
-        <v>44486</v>
-      </c>
-      <c r="P3" s="75">
-        <f ca="1">O3+1</f>
-        <v>44487</v>
-      </c>
-      <c r="Q3" s="76">
-        <f ca="1">P3+1</f>
-        <v>44488</v>
-      </c>
-      <c r="R3" s="76">
-        <f t="shared" ca="1" si="0"/>
         <v>44489</v>
       </c>
-      <c r="S3" s="76">
+      <c r="L3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44490</v>
       </c>
-      <c r="T3" s="76">
+      <c r="M3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44491</v>
       </c>
-      <c r="U3" s="76">
+      <c r="N3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44492</v>
       </c>
-      <c r="V3" s="77">
+      <c r="O3" s="76">
         <f t="shared" ca="1" si="0"/>
         <v>44493</v>
       </c>
-      <c r="W3" s="75">
-        <f ca="1">V3+1</f>
+      <c r="P3" s="74">
+        <f ca="1">O3+1</f>
         <v>44494</v>
       </c>
-      <c r="X3" s="76">
-        <f ca="1">W3+1</f>
+      <c r="Q3" s="75">
+        <f ca="1">P3+1</f>
         <v>44495</v>
       </c>
-      <c r="Y3" s="76">
+      <c r="R3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44496</v>
       </c>
-      <c r="Z3" s="76">
+      <c r="S3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44497</v>
       </c>
-      <c r="AA3" s="76">
+      <c r="T3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44498</v>
       </c>
-      <c r="AB3" s="76">
+      <c r="U3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44499</v>
       </c>
-      <c r="AC3" s="77">
+      <c r="V3" s="76">
         <f t="shared" ca="1" si="0"/>
         <v>44500</v>
       </c>
-      <c r="AD3" s="75">
-        <f ca="1">AC3+1</f>
+      <c r="W3" s="74">
+        <f ca="1">V3+1</f>
         <v>44501</v>
       </c>
-      <c r="AE3" s="76">
-        <f ca="1">AD3+1</f>
+      <c r="X3" s="75">
+        <f ca="1">W3+1</f>
         <v>44502</v>
       </c>
-      <c r="AF3" s="76">
+      <c r="Y3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44503</v>
       </c>
-      <c r="AG3" s="76">
+      <c r="Z3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44504</v>
       </c>
-      <c r="AH3" s="76">
+      <c r="AA3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44505</v>
       </c>
-      <c r="AI3" s="76">
+      <c r="AB3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44506</v>
       </c>
-      <c r="AJ3" s="77">
+      <c r="AC3" s="76">
         <f t="shared" ca="1" si="0"/>
         <v>44507</v>
       </c>
-      <c r="AK3" s="75">
-        <f ca="1">AJ3+1</f>
+      <c r="AD3" s="74">
+        <f ca="1">AC3+1</f>
         <v>44508</v>
       </c>
-      <c r="AL3" s="76">
-        <f ca="1">AK3+1</f>
+      <c r="AE3" s="75">
+        <f ca="1">AD3+1</f>
         <v>44509</v>
       </c>
-      <c r="AM3" s="76">
+      <c r="AF3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44510</v>
       </c>
-      <c r="AN3" s="76">
+      <c r="AG3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44511</v>
       </c>
-      <c r="AO3" s="76">
+      <c r="AH3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44512</v>
       </c>
-      <c r="AP3" s="76">
+      <c r="AI3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44513</v>
       </c>
-      <c r="AQ3" s="77">
+      <c r="AJ3" s="76">
         <f t="shared" ca="1" si="0"/>
         <v>44514</v>
       </c>
-      <c r="AR3" s="75">
-        <f ca="1">AQ3+1</f>
+      <c r="AK3" s="74">
+        <f ca="1">AJ3+1</f>
         <v>44515</v>
       </c>
-      <c r="AS3" s="76">
-        <f ca="1">AR3+1</f>
+      <c r="AL3" s="75">
+        <f ca="1">AK3+1</f>
         <v>44516</v>
       </c>
-      <c r="AT3" s="76">
+      <c r="AM3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44517</v>
       </c>
-      <c r="AU3" s="76">
+      <c r="AN3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44518</v>
       </c>
-      <c r="AV3" s="76">
+      <c r="AO3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44519</v>
       </c>
-      <c r="AW3" s="76">
+      <c r="AP3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44520</v>
       </c>
-      <c r="AX3" s="77">
+      <c r="AQ3" s="76">
         <f t="shared" ca="1" si="0"/>
         <v>44521</v>
       </c>
-      <c r="AY3" s="75">
+      <c r="AR3" s="74">
+        <f ca="1">AQ3+1</f>
+        <v>44522</v>
+      </c>
+      <c r="AS3" s="75">
+        <f ca="1">AR3+1</f>
+        <v>44523</v>
+      </c>
+      <c r="AT3" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44524</v>
+      </c>
+      <c r="AU3" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44525</v>
+      </c>
+      <c r="AV3" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44526</v>
+      </c>
+      <c r="AW3" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44527</v>
+      </c>
+      <c r="AX3" s="76">
+        <f t="shared" ca="1" si="0"/>
+        <v>44528</v>
+      </c>
+      <c r="AY3" s="74">
         <f ca="1">AX3+1</f>
-        <v>44522</v>
-      </c>
-      <c r="AZ3" s="76">
+        <v>44529</v>
+      </c>
+      <c r="AZ3" s="75">
         <f ca="1">AY3+1</f>
-        <v>44523</v>
-      </c>
-      <c r="BA3" s="76">
+        <v>44530</v>
+      </c>
+      <c r="BA3" s="75">
         <f t="shared" ref="BA3:BE3" ca="1" si="1">AZ3+1</f>
-        <v>44524</v>
-      </c>
-      <c r="BB3" s="76">
+        <v>44531</v>
+      </c>
+      <c r="BB3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44525</v>
-      </c>
-      <c r="BC3" s="76">
+        <v>44532</v>
+      </c>
+      <c r="BC3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44526</v>
-      </c>
-      <c r="BD3" s="76">
+        <v>44533</v>
+      </c>
+      <c r="BD3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44527</v>
-      </c>
-      <c r="BE3" s="77">
+        <v>44534</v>
+      </c>
+      <c r="BE3" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>44528</v>
-      </c>
-      <c r="BF3" s="75">
+        <v>44535</v>
+      </c>
+      <c r="BF3" s="74">
         <f ca="1">BE3+1</f>
-        <v>44529</v>
-      </c>
-      <c r="BG3" s="76">
+        <v>44536</v>
+      </c>
+      <c r="BG3" s="75">
         <f ca="1">BF3+1</f>
-        <v>44530</v>
-      </c>
-      <c r="BH3" s="76">
+        <v>44537</v>
+      </c>
+      <c r="BH3" s="75">
         <f t="shared" ref="BH3:BL3" ca="1" si="2">BG3+1</f>
-        <v>44531</v>
-      </c>
-      <c r="BI3" s="76">
+        <v>44538</v>
+      </c>
+      <c r="BI3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44532</v>
-      </c>
-      <c r="BJ3" s="76">
+        <v>44539</v>
+      </c>
+      <c r="BJ3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44533</v>
-      </c>
-      <c r="BK3" s="76">
+        <v>44540</v>
+      </c>
+      <c r="BK3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44534</v>
-      </c>
-      <c r="BL3" s="77">
+        <v>44541</v>
+      </c>
+      <c r="BL3" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>44535</v>
+        <v>44542</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2613,11 +2643,11 @@
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="str">
-        <f t="shared" ref="H6:H35" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H6:H38" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I6" s="29"/>
@@ -2681,7 +2711,7 @@
       <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="55" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="48" t="s">
@@ -2690,10 +2720,10 @@
       <c r="D7" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="63">
+      <c r="E7" s="62">
         <v>44482</v>
       </c>
-      <c r="F7" s="63">
+      <c r="F7" s="62">
         <v>44490</v>
       </c>
       <c r="G7" s="12"/>
@@ -2760,7 +2790,7 @@
     </row>
     <row r="8" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="55" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="48" t="s">
@@ -2769,10 +2799,10 @@
       <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="63">
+      <c r="E8" s="62">
         <v>44485</v>
       </c>
-      <c r="F8" s="63">
+      <c r="F8" s="62">
         <v>44490</v>
       </c>
       <c r="G8" s="12"/>
@@ -2836,7 +2866,7 @@
     </row>
     <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="55" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2845,10 +2875,10 @@
       <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="63">
+      <c r="E9" s="62">
         <v>44482</v>
       </c>
-      <c r="F9" s="63">
+      <c r="F9" s="62">
         <v>44485</v>
       </c>
       <c r="G9" s="12"/>
@@ -2912,7 +2942,7 @@
     </row>
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="55" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="48" t="s">
@@ -2921,10 +2951,10 @@
       <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="63">
+      <c r="E10" s="62">
         <v>44487</v>
       </c>
-      <c r="F10" s="63">
+      <c r="F10" s="62">
         <v>44490</v>
       </c>
       <c r="G10" s="12"/>
@@ -2988,7 +3018,7 @@
     </row>
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43"/>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="55" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="48" t="s">
@@ -2997,10 +3027,10 @@
       <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="63">
+      <c r="E11" s="62">
         <v>44489</v>
       </c>
-      <c r="F11" s="63">
+      <c r="F11" s="62">
         <v>44490</v>
       </c>
       <c r="G11" s="12"/>
@@ -3066,7 +3096,7 @@
       <c r="A12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="55" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="48" t="s">
@@ -3075,10 +3105,10 @@
       <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="62">
         <v>44482</v>
       </c>
-      <c r="F12" s="63">
+      <c r="F12" s="62">
         <v>44490</v>
       </c>
       <c r="G12" s="12"/>
@@ -3152,8 +3182,8 @@
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="65"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="str">
         <f t="shared" si="5"/>
@@ -3218,17 +3248,19 @@
     </row>
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43"/>
-      <c r="B14" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="50"/>
+      <c r="B14" s="89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>39</v>
+      </c>
       <c r="D14" s="18">
         <v>0</v>
       </c>
-      <c r="E14" s="66">
+      <c r="E14" s="65">
         <v>44491</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="65">
         <v>44511</v>
       </c>
       <c r="G14" s="12"/>
@@ -3295,17 +3327,19 @@
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="50"/>
+      <c r="C15" s="90" t="s">
+        <v>45</v>
+      </c>
       <c r="D15" s="18">
         <v>0</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="65">
         <v>44491</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="65">
         <v>44511</v>
       </c>
       <c r="G15" s="12"/>
@@ -3369,17 +3403,19 @@
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43"/>
-      <c r="B16" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="50"/>
+      <c r="B16" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>62</v>
+      </c>
       <c r="D16" s="18">
         <v>0</v>
       </c>
-      <c r="E16" s="66">
+      <c r="E16" s="65">
         <v>44491</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="65">
         <v>44511</v>
       </c>
       <c r="G16" s="12"/>
@@ -3443,17 +3479,19 @@
     </row>
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="43"/>
-      <c r="B17" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="50"/>
+      <c r="B17" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>61</v>
+      </c>
       <c r="D17" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="65">
         <v>44491</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="65">
         <v>44511</v>
       </c>
       <c r="G17" s="12"/>
@@ -3516,25 +3554,24 @@
       <c r="BL17" s="29"/>
     </row>
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42"/>
-      <c r="B18" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="50"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>61</v>
+      </c>
       <c r="D18" s="18">
         <v>0</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="65">
         <v>44491</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="65">
         <v>44511</v>
       </c>
       <c r="G18" s="12"/>
-      <c r="H18" s="12">
-        <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
+      <c r="H18" s="12"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
@@ -3547,8 +3584,8 @@
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
       <c r="Y18" s="29"/>
@@ -3594,17 +3631,19 @@
     </row>
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="42"/>
-      <c r="B19" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="18">
+      <c r="B19" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="91">
         <v>0</v>
       </c>
-      <c r="E19" s="66">
+      <c r="E19" s="92">
         <v>44491</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="92">
         <v>44511</v>
       </c>
       <c r="G19" s="12"/>
@@ -3668,17 +3707,19 @@
     </row>
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42"/>
-      <c r="B20" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="50"/>
+      <c r="B20" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>69</v>
+      </c>
       <c r="D20" s="18">
         <v>0</v>
       </c>
-      <c r="E20" s="66">
+      <c r="E20" s="65">
         <v>44491</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="65">
         <v>44511</v>
       </c>
       <c r="G20" s="12"/>
@@ -3742,17 +3783,19 @@
     </row>
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
-      <c r="B21" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="50"/>
+      <c r="B21" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>62</v>
+      </c>
       <c r="D21" s="18">
         <v>0</v>
       </c>
-      <c r="E21" s="66">
+      <c r="E21" s="65">
         <v>44491</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="65">
         <v>44511</v>
       </c>
       <c r="G21" s="12"/>
@@ -3815,21 +3858,24 @@
       <c r="BL21" s="29"/>
     </row>
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="42"/>
+      <c r="B22" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
+      <c r="C22" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+      <c r="E22" s="65">
+        <v>44491</v>
+      </c>
+      <c r="F22" s="65">
+        <v>44511</v>
+      </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H22" s="12"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
@@ -3842,8 +3888,8 @@
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
       <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
       <c r="Y22" s="29"/>
@@ -3889,24 +3935,23 @@
     </row>
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42"/>
-      <c r="B23" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="21">
+      <c r="B23" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="18">
         <v>0</v>
       </c>
-      <c r="E23" s="69">
-        <v>44512</v>
-      </c>
-      <c r="F23" s="69">
-        <v>44546</v>
+      <c r="E23" s="65">
+        <v>44491</v>
+      </c>
+      <c r="F23" s="65">
+        <v>44511</v>
       </c>
       <c r="G23" s="12"/>
-      <c r="H23" s="12">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
+      <c r="H23" s="12"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
@@ -3919,8 +3964,8 @@
       <c r="R23" s="29"/>
       <c r="S23" s="29"/>
       <c r="T23" s="29"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
+      <c r="U23" s="30"/>
+      <c r="V23" s="30"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
       <c r="Y23" s="29"/>
@@ -3966,24 +4011,23 @@
     </row>
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
-      <c r="B24" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="52"/>
-      <c r="D24" s="21">
+      <c r="B24" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="18">
         <v>0</v>
       </c>
-      <c r="E24" s="69">
-        <v>44512</v>
-      </c>
-      <c r="F24" s="69">
-        <v>44546</v>
+      <c r="E24" s="65">
+        <v>44491</v>
+      </c>
+      <c r="F24" s="65">
+        <v>44511</v>
       </c>
       <c r="G24" s="12"/>
-      <c r="H24" s="12">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
+      <c r="H24" s="12"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
@@ -3996,8 +4040,8 @@
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
       <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
       <c r="Y24" s="29"/>
@@ -4042,24 +4086,20 @@
       <c r="BL24" s="29"/>
     </row>
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="42"/>
-      <c r="B25" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="69">
-        <v>44512</v>
-      </c>
-      <c r="F25" s="69">
-        <v>44546</v>
-      </c>
+      <c r="A25" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="12">
+      <c r="H25" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v/>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -4120,21 +4160,24 @@
     </row>
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="42"/>
-      <c r="B26" s="58" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="52"/>
+      <c r="B26" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="51"/>
       <c r="D26" s="21">
         <v>0</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="68">
         <v>44512</v>
       </c>
-      <c r="F26" s="69">
+      <c r="F26" s="68">
         <v>44546</v>
       </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
       <c r="K26" s="29"/>
@@ -4194,21 +4237,24 @@
     </row>
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
-      <c r="B27" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="52"/>
+      <c r="B27" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="51"/>
       <c r="D27" s="21">
         <v>0</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="68">
         <v>44512</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="68">
         <v>44546</v>
       </c>
       <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
@@ -4267,20 +4313,24 @@
       <c r="BL27" s="29"/>
     </row>
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="68">
+        <v>44512</v>
+      </c>
+      <c r="F28" s="68">
+        <v>44546</v>
+      </c>
       <c r="G28" s="12"/>
-      <c r="H28" s="12" t="str">
+      <c r="H28" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>35</v>
       </c>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
@@ -4341,24 +4391,21 @@
     </row>
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
-      <c r="B29" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80">
+      <c r="B29" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="21">
         <v>0</v>
       </c>
-      <c r="E29" s="81">
-        <v>44547</v>
-      </c>
-      <c r="F29" s="81">
-        <v>44588</v>
+      <c r="E29" s="68">
+        <v>44512</v>
+      </c>
+      <c r="F29" s="68">
+        <v>44546</v>
       </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="12">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
+      <c r="H29" s="12"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -4418,24 +4465,21 @@
     </row>
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80">
+      <c r="C30" s="51"/>
+      <c r="D30" s="21">
         <v>0</v>
       </c>
-      <c r="E30" s="81">
-        <v>44547</v>
-      </c>
-      <c r="F30" s="81">
-        <v>44588</v>
+      <c r="E30" s="68">
+        <v>44512</v>
+      </c>
+      <c r="F30" s="68">
+        <v>44546</v>
       </c>
       <c r="G30" s="12"/>
-      <c r="H30" s="12">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
+      <c r="H30" s="12"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
@@ -4494,24 +4538,20 @@
       <c r="BL30" s="29"/>
     </row>
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="42"/>
-      <c r="B31" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80">
-        <v>0</v>
-      </c>
-      <c r="E31" s="81">
-        <v>44547</v>
-      </c>
-      <c r="F31" s="81">
-        <v>44588</v>
-      </c>
+      <c r="A31" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="12">
+      <c r="H31" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v/>
       </c>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
@@ -4572,17 +4612,17 @@
     </row>
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="42"/>
-      <c r="B32" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80">
+      <c r="B32" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79">
         <v>0</v>
       </c>
-      <c r="E32" s="81">
+      <c r="E32" s="80">
         <v>44547</v>
       </c>
-      <c r="F32" s="81">
+      <c r="F32" s="80">
         <v>44588</v>
       </c>
       <c r="G32" s="12"/>
@@ -4649,17 +4689,17 @@
     </row>
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
-      <c r="B33" s="59" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="54"/>
-      <c r="D33" s="24">
+      <c r="B33" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79">
         <v>0</v>
       </c>
-      <c r="E33" s="81">
+      <c r="E33" s="80">
         <v>44547</v>
       </c>
-      <c r="F33" s="81">
+      <c r="F33" s="80">
         <v>44588</v>
       </c>
       <c r="G33" s="12"/>
@@ -4725,18 +4765,24 @@
       <c r="BL33" s="29"/>
     </row>
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="77" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79">
+        <v>0</v>
+      </c>
+      <c r="E34" s="80">
+        <v>44547</v>
+      </c>
+      <c r="F34" s="80">
+        <v>44588</v>
+      </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="12" t="str">
+      <c r="H34" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>42</v>
       </c>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
@@ -4796,95 +4842,315 @@
       <c r="BL34" s="29"/>
     </row>
     <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28" t="str">
+      <c r="A35" s="42"/>
+      <c r="B35" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79">
+        <v>0</v>
+      </c>
+      <c r="E35" s="80">
+        <v>44547</v>
+      </c>
+      <c r="F35" s="80">
+        <v>44588</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29"/>
+      <c r="AJ35" s="29"/>
+      <c r="AK35" s="29"/>
+      <c r="AL35" s="29"/>
+      <c r="AM35" s="29"/>
+      <c r="AN35" s="29"/>
+      <c r="AO35" s="29"/>
+      <c r="AP35" s="29"/>
+      <c r="AQ35" s="29"/>
+      <c r="AR35" s="29"/>
+      <c r="AS35" s="29"/>
+      <c r="AT35" s="29"/>
+      <c r="AU35" s="29"/>
+      <c r="AV35" s="29"/>
+      <c r="AW35" s="29"/>
+      <c r="AX35" s="29"/>
+      <c r="AY35" s="29"/>
+      <c r="AZ35" s="29"/>
+      <c r="BA35" s="29"/>
+      <c r="BB35" s="29"/>
+      <c r="BC35" s="29"/>
+      <c r="BD35" s="29"/>
+      <c r="BE35" s="29"/>
+      <c r="BF35" s="29"/>
+      <c r="BG35" s="29"/>
+      <c r="BH35" s="29"/>
+      <c r="BI35" s="29"/>
+      <c r="BJ35" s="29"/>
+      <c r="BK35" s="29"/>
+      <c r="BL35" s="29"/>
+    </row>
+    <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="42"/>
+      <c r="B36" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="24">
+        <v>0</v>
+      </c>
+      <c r="E36" s="80">
+        <v>44547</v>
+      </c>
+      <c r="F36" s="80">
+        <v>44588</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+      <c r="AI36" s="29"/>
+      <c r="AJ36" s="29"/>
+      <c r="AK36" s="29"/>
+      <c r="AL36" s="29"/>
+      <c r="AM36" s="29"/>
+      <c r="AN36" s="29"/>
+      <c r="AO36" s="29"/>
+      <c r="AP36" s="29"/>
+      <c r="AQ36" s="29"/>
+      <c r="AR36" s="29"/>
+      <c r="AS36" s="29"/>
+      <c r="AT36" s="29"/>
+      <c r="AU36" s="29"/>
+      <c r="AV36" s="29"/>
+      <c r="AW36" s="29"/>
+      <c r="AX36" s="29"/>
+      <c r="AY36" s="29"/>
+      <c r="AZ36" s="29"/>
+      <c r="BA36" s="29"/>
+      <c r="BB36" s="29"/>
+      <c r="BC36" s="29"/>
+      <c r="BD36" s="29"/>
+      <c r="BE36" s="29"/>
+      <c r="BF36" s="29"/>
+      <c r="BG36" s="29"/>
+      <c r="BH36" s="29"/>
+      <c r="BI36" s="29"/>
+      <c r="BJ36" s="29"/>
+      <c r="BK36" s="29"/>
+      <c r="BL36" s="29"/>
+    </row>
+    <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="31"/>
-      <c r="AL35" s="31"/>
-      <c r="AM35" s="31"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="31"/>
-      <c r="AQ35" s="31"/>
-      <c r="AR35" s="31"/>
-      <c r="AS35" s="31"/>
-      <c r="AT35" s="31"/>
-      <c r="AU35" s="31"/>
-      <c r="AV35" s="31"/>
-      <c r="AW35" s="31"/>
-      <c r="AX35" s="31"/>
-      <c r="AY35" s="31"/>
-      <c r="AZ35" s="31"/>
-      <c r="BA35" s="31"/>
-      <c r="BB35" s="31"/>
-      <c r="BC35" s="31"/>
-      <c r="BD35" s="31"/>
-      <c r="BE35" s="31"/>
-      <c r="BF35" s="31"/>
-      <c r="BG35" s="31"/>
-      <c r="BH35" s="31"/>
-      <c r="BI35" s="31"/>
-      <c r="BJ35" s="31"/>
-      <c r="BK35" s="31"/>
-      <c r="BL35" s="31"/>
-    </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="9"/>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="10"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+      <c r="AI37" s="29"/>
+      <c r="AJ37" s="29"/>
+      <c r="AK37" s="29"/>
+      <c r="AL37" s="29"/>
+      <c r="AM37" s="29"/>
+      <c r="AN37" s="29"/>
+      <c r="AO37" s="29"/>
+      <c r="AP37" s="29"/>
+      <c r="AQ37" s="29"/>
+      <c r="AR37" s="29"/>
+      <c r="AS37" s="29"/>
+      <c r="AT37" s="29"/>
+      <c r="AU37" s="29"/>
+      <c r="AV37" s="29"/>
+      <c r="AW37" s="29"/>
+      <c r="AX37" s="29"/>
+      <c r="AY37" s="29"/>
+      <c r="AZ37" s="29"/>
+      <c r="BA37" s="29"/>
+      <c r="BB37" s="29"/>
+      <c r="BC37" s="29"/>
+      <c r="BD37" s="29"/>
+      <c r="BE37" s="29"/>
+      <c r="BF37" s="29"/>
+      <c r="BG37" s="29"/>
+      <c r="BH37" s="29"/>
+      <c r="BI37" s="29"/>
+      <c r="BJ37" s="29"/>
+      <c r="BK37" s="29"/>
+      <c r="BL37" s="29"/>
+    </row>
+    <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="9"/>
+      <c r="F40" s="44"/>
+    </row>
+    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -4892,9 +5158,14 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D33:D35 D5:D26 D28">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="D36:D38 D31 D5:D22 D25:D29">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4907,21 +5178,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:BL35">
-    <cfRule type="expression" dxfId="2" priority="36">
+  <conditionalFormatting sqref="I3:BL38">
+    <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$3,TODAY()&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL35">
-    <cfRule type="expression" dxfId="1" priority="30">
+  <conditionalFormatting sqref="I5:BL38">
+    <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$3,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="32" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$3,task_start&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D31">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="D32:D34">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4934,8 +5205,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="2">
+  <conditionalFormatting sqref="D35">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4948,8 +5219,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D27">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D30">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -4962,6 +5233,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D23:D24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{390AB96A-66A8-4F5C-BFDD-979F9461A950}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
@@ -4969,7 +5254,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="41" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -4989,7 +5274,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:D35 D5:D26 D28</xm:sqref>
+          <xm:sqref>D36:D38 D31 D5:D22 D25:D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F4F6ECBA-56F2-40E7-BC69-50DE4088154B}">
@@ -5004,7 +5289,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D29:D31</xm:sqref>
+          <xm:sqref>D32:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{836A1D7D-2623-4CA5-A848-84AB4FCB2080}">
@@ -5019,7 +5304,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{60326584-368A-4DC1-BE02-783B6804C060}">
@@ -5034,7 +5319,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D27</xm:sqref>
+          <xm:sqref>D30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{390AB96A-66A8-4F5C-BFDD-979F9461A950}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D23:D24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2082CC-8EDD-4A0F-B5B1-5866DA3C86CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="task_start" localSheetId="0">Projektplan!$E1</definedName>
     <definedName name="Woche_anzeigen">Projektplan!$E$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -292,7 +291,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="10">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1310,6 +1309,36 @@
     <xf numFmtId="167" fontId="8" fillId="34" borderId="2" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="26" borderId="2" xfId="35" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="26" borderId="2" xfId="35" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1320,36 +1349,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="26" borderId="2" xfId="35" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="26" borderId="2" xfId="35" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1376,11 +1375,11 @@
     <cellStyle name="Akzent4" xfId="42" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Akzent5" xfId="46" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Akzent6" xfId="50" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Aufgabe" xfId="12" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Aufgabe" xfId="12"/>
     <cellStyle name="Ausgabe" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Berechnung" xfId="23" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Datum" xfId="10" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Datum" xfId="10"/>
     <cellStyle name="Dezimal [0]" xfId="14" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Eingabe" xfId="21" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="29" builtinId="25" customBuiltin="1"/>
@@ -1388,10 +1387,10 @@
     <cellStyle name="Gut" xfId="18" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Name" xfId="11"/>
     <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Projektanfang" xfId="9" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Projektanfang" xfId="9"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="19" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1404,7 +1403,7 @@
     <cellStyle name="Währung" xfId="15" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Währung [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Warnender Text" xfId="26" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="zAusgeblText" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="zAusgeblText" xfId="3"/>
     <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="12">
@@ -1533,7 +1532,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Aufgabenliste" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Aufgabenliste" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -1656,7 +1655,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1953,147 +1952,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A10" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A11" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1"/>
-    <col min="3" max="3" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5546875" customWidth="1"/>
-    <col min="69" max="70" width="10.33203125"/>
+    <col min="1" max="1" width="2.7109375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5703125" customWidth="1"/>
+    <col min="69" max="70" width="10.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="88">
+      <c r="D1" s="92"/>
+      <c r="E1" s="90">
         <f ca="1">TODAY()</f>
-        <v>44494</v>
-      </c>
-      <c r="F1" s="88"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44497</v>
+      </c>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="82"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="85">
+      <c r="I2" s="87">
         <f ca="1">I3</f>
         <v>44487</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="85">
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="87">
         <f ca="1">P3</f>
         <v>44494</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="85">
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="87">
         <f ca="1">W3</f>
         <v>44501</v>
       </c>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="85">
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="87">
         <f ca="1">AD3</f>
         <v>44508</v>
       </c>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="87"/>
-      <c r="AK2" s="85">
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="87">
         <f ca="1">AK3</f>
         <v>44515</v>
       </c>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="86"/>
-      <c r="AN2" s="86"/>
-      <c r="AO2" s="86"/>
-      <c r="AP2" s="86"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="85">
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="87">
         <f ca="1">AR3</f>
         <v>44522</v>
       </c>
-      <c r="AS2" s="86"/>
-      <c r="AT2" s="86"/>
-      <c r="AU2" s="86"/>
-      <c r="AV2" s="86"/>
-      <c r="AW2" s="86"/>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="85">
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="87">
         <f ca="1">AY3</f>
         <v>44529</v>
       </c>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="86"/>
-      <c r="BB2" s="86"/>
-      <c r="BC2" s="86"/>
-      <c r="BD2" s="86"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="85">
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="87">
         <f ca="1">BF3</f>
         <v>44536</v>
       </c>
-      <c r="BG2" s="86"/>
-      <c r="BH2" s="86"/>
-      <c r="BI2" s="86"/>
-      <c r="BJ2" s="86"/>
-      <c r="BK2" s="86"/>
-      <c r="BL2" s="87"/>
-    </row>
-    <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="89"/>
+    </row>
+    <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
       <c r="I3" s="74">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
         <v>44487</v>
@@ -2319,7 +2318,7 @@
         <v>44542</v>
       </c>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
@@ -2634,7 +2633,7 @@
       <c r="BK5" s="29"/>
       <c r="BL5" s="29"/>
     </row>
-    <row r="6" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>5</v>
       </c>
@@ -2707,7 +2706,7 @@
       <c r="BK6" s="29"/>
       <c r="BL6" s="29"/>
     </row>
-    <row r="7" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
@@ -2788,7 +2787,7 @@
       <c r="BK7" s="29"/>
       <c r="BL7" s="29"/>
     </row>
-    <row r="8" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="55" t="s">
         <v>42</v>
@@ -2864,7 +2863,7 @@
       <c r="BK8" s="29"/>
       <c r="BL8" s="29"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" s="55" t="s">
         <v>44</v>
@@ -2940,7 +2939,7 @@
       <c r="BK9" s="29"/>
       <c r="BL9" s="29"/>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="55" t="s">
         <v>43</v>
@@ -3016,7 +3015,7 @@
       <c r="BK10" s="29"/>
       <c r="BL10" s="29"/>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="55" t="s">
         <v>40</v>
@@ -3092,7 +3091,7 @@
       <c r="BK11" s="29"/>
       <c r="BL11" s="29"/>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>7</v>
       </c>
@@ -3173,7 +3172,7 @@
       <c r="BK12" s="29"/>
       <c r="BL12" s="29"/>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>8</v>
       </c>
@@ -3246,12 +3245,12 @@
       <c r="BK13" s="29"/>
       <c r="BL13" s="29"/>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="82" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="18">
@@ -3325,12 +3324,12 @@
       <c r="BK14" s="29"/>
       <c r="BL14" s="29"/>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="82" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="18">
@@ -3401,13 +3400,13 @@
       <c r="BK15" s="29"/>
       <c r="BL15" s="29"/>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="90" t="s">
-        <v>62</v>
+      <c r="C16" s="82" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="18">
         <v>0</v>
@@ -3477,12 +3476,12 @@
       <c r="BK16" s="29"/>
       <c r="BL16" s="29"/>
     </row>
-    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="82" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="18">
@@ -3553,12 +3552,12 @@
       <c r="BK17" s="29"/>
       <c r="BL17" s="29"/>
     </row>
-    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="82" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="18">
@@ -3629,21 +3628,21 @@
       <c r="BK18" s="29"/>
       <c r="BL18" s="29"/>
     </row>
-    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42"/>
-      <c r="B19" s="93" t="s">
+      <c r="B19" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="86" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="83">
         <v>0</v>
       </c>
-      <c r="E19" s="92">
+      <c r="E19" s="84">
         <v>44491</v>
       </c>
-      <c r="F19" s="92">
+      <c r="F19" s="84">
         <v>44511</v>
       </c>
       <c r="G19" s="12"/>
@@ -3705,12 +3704,12 @@
       <c r="BK19" s="29"/>
       <c r="BL19" s="29"/>
     </row>
-    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="90" t="s">
+      <c r="C20" s="82" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="18">
@@ -3781,12 +3780,12 @@
       <c r="BK20" s="29"/>
       <c r="BL20" s="29"/>
     </row>
-    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="82" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="18">
@@ -3857,12 +3856,12 @@
       <c r="BK21" s="29"/>
       <c r="BL21" s="29"/>
     </row>
-    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="82" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="18">
@@ -3933,12 +3932,12 @@
       <c r="BK22" s="29"/>
       <c r="BL22" s="29"/>
     </row>
-    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42"/>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="82" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="18">
@@ -4009,12 +4008,12 @@
       <c r="BK23" s="29"/>
       <c r="BL23" s="29"/>
     </row>
-    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="82" t="s">
         <v>45</v>
       </c>
       <c r="D24" s="18">
@@ -4085,7 +4084,7 @@
       <c r="BK24" s="29"/>
       <c r="BL24" s="29"/>
     </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>9</v>
       </c>
@@ -4158,7 +4157,7 @@
       <c r="BK25" s="29"/>
       <c r="BL25" s="29"/>
     </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42"/>
       <c r="B26" s="57" t="s">
         <v>49</v>
@@ -4235,7 +4234,7 @@
       <c r="BK26" s="29"/>
       <c r="BL26" s="29"/>
     </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="42"/>
       <c r="B27" s="57" t="s">
         <v>50</v>
@@ -4312,7 +4311,7 @@
       <c r="BK27" s="29"/>
       <c r="BL27" s="29"/>
     </row>
-    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="57" t="s">
         <v>53</v>
@@ -4389,7 +4388,7 @@
       <c r="BK28" s="29"/>
       <c r="BL28" s="29"/>
     </row>
-    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="57" t="s">
         <v>57</v>
@@ -4463,7 +4462,7 @@
       <c r="BK29" s="29"/>
       <c r="BL29" s="29"/>
     </row>
-    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42"/>
       <c r="B30" s="57" t="s">
         <v>60</v>
@@ -4537,7 +4536,7 @@
       <c r="BK30" s="29"/>
       <c r="BL30" s="29"/>
     </row>
-    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
         <v>9</v>
       </c>
@@ -4610,7 +4609,7 @@
       <c r="BK31" s="29"/>
       <c r="BL31" s="29"/>
     </row>
-    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42"/>
       <c r="B32" s="77" t="s">
         <v>54</v>
@@ -4687,7 +4686,7 @@
       <c r="BK32" s="29"/>
       <c r="BL32" s="29"/>
     </row>
-    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="42"/>
       <c r="B33" s="77" t="s">
         <v>55</v>
@@ -4764,7 +4763,7 @@
       <c r="BK33" s="29"/>
       <c r="BL33" s="29"/>
     </row>
-    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42"/>
       <c r="B34" s="77" t="s">
         <v>56</v>
@@ -4841,7 +4840,7 @@
       <c r="BK34" s="29"/>
       <c r="BL34" s="29"/>
     </row>
-    <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="77" t="s">
         <v>51</v>
@@ -4918,7 +4917,7 @@
       <c r="BK35" s="29"/>
       <c r="BL35" s="29"/>
     </row>
-    <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
       <c r="B36" s="58" t="s">
         <v>59</v>
@@ -4995,7 +4994,7 @@
       <c r="BK36" s="29"/>
       <c r="BL36" s="29"/>
     </row>
-    <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42" t="s">
         <v>10</v>
       </c>
@@ -5066,7 +5065,7 @@
       <c r="BK37" s="29"/>
       <c r="BL37" s="29"/>
     </row>
-    <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>11</v>
       </c>
@@ -5139,18 +5138,23 @@
       <c r="BK38" s="31"/>
       <c r="BL38" s="31"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="9"/>
       <c r="F40" s="44"/>
     </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -5158,11 +5162,6 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
   <conditionalFormatting sqref="D36:D38 D31 D5:D22 D25:D29">
     <cfRule type="dataBar" priority="18">
@@ -5248,13 +5247,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="E2">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5343,7 +5342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5351,96 +5350,96 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="109.88671875" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="109.85546875" style="32" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:2" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
     </row>
-    <row r="3" spans="1:2" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="39"/>
     </row>
-    <row r="4" spans="1:2" s="35" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="32" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" s="32" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="35" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="32" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" s="32" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="35" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="32" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" s="32" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="35" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
+    <workbookView minimized="1" xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -1327,6 +1327,16 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1339,16 +1349,6 @@
     <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1655,7 +1655,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1981,118 +1981,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="90">
+      <c r="D1" s="88"/>
+      <c r="E1" s="94">
         <f ca="1">TODAY()</f>
         <v>44497</v>
       </c>
-      <c r="F1" s="90"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="87">
+      <c r="I2" s="91">
         <f ca="1">I3</f>
         <v>44487</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="87">
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="91">
         <f ca="1">P3</f>
         <v>44494</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="87">
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="91">
         <f ca="1">W3</f>
         <v>44501</v>
       </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="87">
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="91">
         <f ca="1">AD3</f>
         <v>44508</v>
       </c>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="87">
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="91">
         <f ca="1">AK3</f>
         <v>44515</v>
       </c>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="87">
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="91">
         <f ca="1">AR3</f>
         <v>44522</v>
       </c>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="87">
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="91">
         <f ca="1">AY3</f>
         <v>44529</v>
       </c>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="87">
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="92"/>
+      <c r="BC2" s="92"/>
+      <c r="BD2" s="92"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="91">
         <f ca="1">BF3</f>
         <v>44536</v>
       </c>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="89"/>
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="92"/>
+      <c r="BI2" s="92"/>
+      <c r="BJ2" s="92"/>
+      <c r="BK2" s="92"/>
+      <c r="BL2" s="93"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
       <c r="I3" s="74">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
         <v>44487</v>
@@ -5150,11 +5150,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -5162,6 +5157,11 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
   <conditionalFormatting sqref="D36:D38 D31 D5:D22 D25:D29">
     <cfRule type="dataBar" priority="18">

--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B561B6-C8C5-4C9F-805F-ABCBEAF6AD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="task_start" localSheetId="0">Projektplan!$E1</definedName>
     <definedName name="Woche_anzeigen">Projektplan!$E$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Geben Sie den Namen des Projektleiters in Zelle B3 ein. Geben Sie das Startdatum für das Projekt in Zelle E3 ein. Start des Projekts: Die Bezeichnung steht in Zelle C3.</t>
   </si>
@@ -287,11 +288,17 @@
   <si>
     <t>Startseite/Suchergebnis</t>
   </si>
+  <si>
+    <t>DropDown Menüs</t>
+  </si>
+  <si>
+    <t>Daniela? Dean?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="10">
     <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -1327,6 +1334,18 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1337,18 +1356,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1375,11 +1382,11 @@
     <cellStyle name="Akzent4" xfId="42" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Akzent5" xfId="46" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Akzent6" xfId="50" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Aufgabe" xfId="12"/>
+    <cellStyle name="Aufgabe" xfId="12" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="Ausgabe" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Berechnung" xfId="23" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Besuchter Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Datum" xfId="10"/>
+    <cellStyle name="Datum" xfId="10" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="Dezimal [0]" xfId="14" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Eingabe" xfId="21" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="29" builtinId="25" customBuiltin="1"/>
@@ -1387,10 +1394,10 @@
     <cellStyle name="Gut" xfId="18" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Komma" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Name" xfId="11"/>
+    <cellStyle name="Name" xfId="11" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
     <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Projektanfang" xfId="9"/>
+    <cellStyle name="Projektanfang" xfId="9" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
     <cellStyle name="Prozent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="19" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1403,7 +1410,7 @@
     <cellStyle name="Währung" xfId="15" builtinId="4" customBuiltin="1"/>
     <cellStyle name="Währung [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Warnender Text" xfId="26" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="zAusgeblText" xfId="3"/>
+    <cellStyle name="zAusgeblText" xfId="3" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="12">
@@ -1532,7 +1539,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Aufgabenliste" pivot="0" count="9">
+    <tableStyle name="Aufgabenliste" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="11"/>
       <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="totalRow" dxfId="9"/>
@@ -1655,7 +1662,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1952,373 +1959,373 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL41"/>
+  <dimension ref="A1:BL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A11" zoomScale="140" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A9" zoomScale="73" zoomScaleNormal="100" zoomScalePageLayoutView="73" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.5703125" customWidth="1"/>
-    <col min="69" max="70" width="10.28515625"/>
+    <col min="1" max="1" width="2.6640625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="2.6640625" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.5546875" customWidth="1"/>
+    <col min="69" max="70" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="94">
+      <c r="D1" s="92"/>
+      <c r="E1" s="90">
         <f ca="1">TODAY()</f>
-        <v>44497</v>
-      </c>
-      <c r="F1" s="94"/>
-    </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44504</v>
+      </c>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="91">
+      <c r="I2" s="87">
         <f ca="1">I3</f>
-        <v>44487</v>
-      </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="91">
+        <v>44494</v>
+      </c>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="87">
         <f ca="1">P3</f>
-        <v>44494</v>
-      </c>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="91">
+        <v>44501</v>
+      </c>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="87">
         <f ca="1">W3</f>
-        <v>44501</v>
-      </c>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="91">
+        <v>44508</v>
+      </c>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="87">
         <f ca="1">AD3</f>
-        <v>44508</v>
-      </c>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="91">
+        <v>44515</v>
+      </c>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="87">
         <f ca="1">AK3</f>
-        <v>44515</v>
-      </c>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="91">
+        <v>44522</v>
+      </c>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="87">
         <f ca="1">AR3</f>
-        <v>44522</v>
-      </c>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="91">
+        <v>44529</v>
+      </c>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="87">
         <f ca="1">AY3</f>
-        <v>44529</v>
-      </c>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="92"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="91">
+        <v>44536</v>
+      </c>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="87">
         <f ca="1">BF3</f>
-        <v>44536</v>
-      </c>
-      <c r="BG2" s="92"/>
-      <c r="BH2" s="92"/>
-      <c r="BI2" s="92"/>
-      <c r="BJ2" s="92"/>
-      <c r="BK2" s="92"/>
-      <c r="BL2" s="93"/>
-    </row>
-    <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44543</v>
+      </c>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="89"/>
+    </row>
+    <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
       <c r="I3" s="74">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44487</v>
+        <v>44494</v>
       </c>
       <c r="J3" s="75">
         <f ca="1">I3+1</f>
-        <v>44488</v>
+        <v>44495</v>
       </c>
       <c r="K3" s="75">
         <f t="shared" ref="K3:AX3" ca="1" si="0">J3+1</f>
-        <v>44489</v>
+        <v>44496</v>
       </c>
       <c r="L3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44490</v>
+        <v>44497</v>
       </c>
       <c r="M3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44491</v>
+        <v>44498</v>
       </c>
       <c r="N3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44492</v>
+        <v>44499</v>
       </c>
       <c r="O3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44493</v>
+        <v>44500</v>
       </c>
       <c r="P3" s="74">
         <f ca="1">O3+1</f>
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="Q3" s="75">
         <f ca="1">P3+1</f>
-        <v>44495</v>
+        <v>44502</v>
       </c>
       <c r="R3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="S3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="T3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="U3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44506</v>
       </c>
       <c r="V3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44500</v>
+        <v>44507</v>
       </c>
       <c r="W3" s="74">
         <f ca="1">V3+1</f>
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="X3" s="75">
         <f ca="1">W3+1</f>
-        <v>44502</v>
+        <v>44509</v>
       </c>
       <c r="Y3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="Z3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44511</v>
       </c>
       <c r="AA3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="AB3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44513</v>
       </c>
       <c r="AC3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="AD3" s="74">
         <f ca="1">AC3+1</f>
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="AE3" s="75">
         <f ca="1">AD3+1</f>
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="AF3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="AG3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44511</v>
+        <v>44518</v>
       </c>
       <c r="AH3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="AI3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="AJ3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44514</v>
+        <v>44521</v>
       </c>
       <c r="AK3" s="74">
         <f ca="1">AJ3+1</f>
-        <v>44515</v>
+        <v>44522</v>
       </c>
       <c r="AL3" s="75">
         <f ca="1">AK3+1</f>
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="AM3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="AN3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="AO3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="AP3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44520</v>
+        <v>44527</v>
       </c>
       <c r="AQ3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44521</v>
+        <v>44528</v>
       </c>
       <c r="AR3" s="74">
         <f ca="1">AQ3+1</f>
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="AS3" s="75">
         <f ca="1">AR3+1</f>
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="AT3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="AU3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44525</v>
+        <v>44532</v>
       </c>
       <c r="AV3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="AW3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="AX3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44528</v>
+        <v>44535</v>
       </c>
       <c r="AY3" s="74">
         <f ca="1">AX3+1</f>
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="AZ3" s="75">
         <f ca="1">AY3+1</f>
-        <v>44530</v>
+        <v>44537</v>
       </c>
       <c r="BA3" s="75">
         <f t="shared" ref="BA3:BE3" ca="1" si="1">AZ3+1</f>
-        <v>44531</v>
+        <v>44538</v>
       </c>
       <c r="BB3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44532</v>
+        <v>44539</v>
       </c>
       <c r="BC3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44533</v>
+        <v>44540</v>
       </c>
       <c r="BD3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44534</v>
+        <v>44541</v>
       </c>
       <c r="BE3" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>44535</v>
+        <v>44542</v>
       </c>
       <c r="BF3" s="74">
         <f ca="1">BE3+1</f>
-        <v>44536</v>
+        <v>44543</v>
       </c>
       <c r="BG3" s="75">
         <f ca="1">BF3+1</f>
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="BH3" s="75">
         <f t="shared" ref="BH3:BL3" ca="1" si="2">BG3+1</f>
-        <v>44538</v>
+        <v>44545</v>
       </c>
       <c r="BI3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="BJ3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44540</v>
+        <v>44547</v>
       </c>
       <c r="BK3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="BL3" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>44542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>44549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
         <v>3</v>
       </c>
@@ -2566,7 +2573,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="5" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2640,7 @@
       <c r="BK5" s="29"/>
       <c r="BL5" s="29"/>
     </row>
-    <row r="6" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="43" t="s">
         <v>5</v>
       </c>
@@ -2646,7 +2653,7 @@
       <c r="F6" s="61"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="str">
-        <f t="shared" ref="H6:H38" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H6:H39" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I6" s="29"/>
@@ -2706,7 +2713,7 @@
       <c r="BK6" s="29"/>
       <c r="BL6" s="29"/>
     </row>
-    <row r="7" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
@@ -2787,7 +2794,7 @@
       <c r="BK7" s="29"/>
       <c r="BL7" s="29"/>
     </row>
-    <row r="8" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
       <c r="B8" s="55" t="s">
         <v>42</v>
@@ -2863,7 +2870,7 @@
       <c r="BK8" s="29"/>
       <c r="BL8" s="29"/>
     </row>
-    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43"/>
       <c r="B9" s="55" t="s">
         <v>44</v>
@@ -2939,7 +2946,7 @@
       <c r="BK9" s="29"/>
       <c r="BL9" s="29"/>
     </row>
-    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43"/>
       <c r="B10" s="55" t="s">
         <v>43</v>
@@ -3015,7 +3022,7 @@
       <c r="BK10" s="29"/>
       <c r="BL10" s="29"/>
     </row>
-    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43"/>
       <c r="B11" s="55" t="s">
         <v>40</v>
@@ -3091,7 +3098,7 @@
       <c r="BK11" s="29"/>
       <c r="BL11" s="29"/>
     </row>
-    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="43" t="s">
         <v>7</v>
       </c>
@@ -3172,7 +3179,7 @@
       <c r="BK12" s="29"/>
       <c r="BL12" s="29"/>
     </row>
-    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43" t="s">
         <v>8</v>
       </c>
@@ -3245,7 +3252,7 @@
       <c r="BK13" s="29"/>
       <c r="BL13" s="29"/>
     </row>
-    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43"/>
       <c r="B14" s="81" t="s">
         <v>70</v>
@@ -3324,7 +3331,7 @@
       <c r="BK14" s="29"/>
       <c r="BL14" s="29"/>
     </row>
-    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
       <c r="B15" s="56" t="s">
         <v>49</v>
@@ -3400,7 +3407,7 @@
       <c r="BK15" s="29"/>
       <c r="BL15" s="29"/>
     </row>
-    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43"/>
       <c r="B16" s="56" t="s">
         <v>50</v>
@@ -3476,7 +3483,7 @@
       <c r="BK16" s="29"/>
       <c r="BL16" s="29"/>
     </row>
-    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="43"/>
       <c r="B17" s="81" t="s">
         <v>63</v>
@@ -3552,7 +3559,7 @@
       <c r="BK17" s="29"/>
       <c r="BL17" s="29"/>
     </row>
-    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43"/>
       <c r="B18" s="81" t="s">
         <v>54</v>
@@ -3628,7 +3635,7 @@
       <c r="BK18" s="29"/>
       <c r="BL18" s="29"/>
     </row>
-    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="42"/>
       <c r="B19" s="85" t="s">
         <v>64</v>
@@ -3704,7 +3711,7 @@
       <c r="BK19" s="29"/>
       <c r="BL19" s="29"/>
     </row>
-    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42"/>
       <c r="B20" s="81" t="s">
         <v>65</v>
@@ -3780,23 +3787,17 @@
       <c r="BK20" s="29"/>
       <c r="BL20" s="29"/>
     </row>
-    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
       <c r="B21" s="81" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="18">
-        <v>0</v>
-      </c>
-      <c r="E21" s="65">
-        <v>44491</v>
-      </c>
-      <c r="F21" s="65">
-        <v>44511</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="29"/>
@@ -3856,13 +3857,13 @@
       <c r="BK21" s="29"/>
       <c r="BL21" s="29"/>
     </row>
-    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="42"/>
       <c r="B22" s="81" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D22" s="18">
         <v>0</v>
@@ -3932,13 +3933,13 @@
       <c r="BK22" s="29"/>
       <c r="BL22" s="29"/>
     </row>
-    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42"/>
       <c r="B23" s="81" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D23" s="18">
         <v>0</v>
@@ -4008,13 +4009,13 @@
       <c r="BK23" s="29"/>
       <c r="BL23" s="29"/>
     </row>
-    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D24" s="18">
         <v>0</v>
@@ -4084,22 +4085,25 @@
       <c r="BK24" s="29"/>
       <c r="BL24" s="29"/>
     </row>
-    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
+    <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="42"/>
+      <c r="B25" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="65">
+        <v>44491</v>
+      </c>
+      <c r="F25" s="65">
+        <v>44511</v>
+      </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H25" s="12"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -4112,8 +4116,8 @@
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
       <c r="Y25" s="29"/>
@@ -4157,25 +4161,21 @@
       <c r="BK25" s="29"/>
       <c r="BL25" s="29"/>
     </row>
-    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="68">
-        <v>44512</v>
-      </c>
-      <c r="F26" s="68">
-        <v>44546</v>
-      </c>
+    <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="12">
+      <c r="H26" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v/>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -4234,10 +4234,10 @@
       <c r="BK26" s="29"/>
       <c r="BL26" s="29"/>
     </row>
-    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
       <c r="B27" s="57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="21">
@@ -4311,10 +4311,10 @@
       <c r="BK27" s="29"/>
       <c r="BL27" s="29"/>
     </row>
-    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
       <c r="B28" s="57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="21">
@@ -4388,10 +4388,10 @@
       <c r="BK28" s="29"/>
       <c r="BL28" s="29"/>
     </row>
-    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
       <c r="B29" s="57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="21">
@@ -4404,7 +4404,10 @@
         <v>44546</v>
       </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -4462,10 +4465,10 @@
       <c r="BK29" s="29"/>
       <c r="BL29" s="29"/>
     </row>
-    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
       <c r="B30" s="57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="21">
@@ -4536,22 +4539,23 @@
       <c r="BK30" s="29"/>
       <c r="BL30" s="29"/>
     </row>
-    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
+    <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="42"/>
+      <c r="B31" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="68">
+        <v>44512</v>
+      </c>
+      <c r="F31" s="68">
+        <v>44546</v>
+      </c>
       <c r="G31" s="12"/>
-      <c r="H31" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H31" s="12"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -4609,25 +4613,21 @@
       <c r="BK31" s="29"/>
       <c r="BL31" s="29"/>
     </row>
-    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79">
-        <v>0</v>
-      </c>
-      <c r="E32" s="80">
-        <v>44547</v>
-      </c>
-      <c r="F32" s="80">
-        <v>44588</v>
-      </c>
+    <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="12">
+      <c r="H32" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v/>
       </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
@@ -4686,10 +4686,10 @@
       <c r="BK32" s="29"/>
       <c r="BL32" s="29"/>
     </row>
-    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
       <c r="B33" s="77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="79">
@@ -4763,10 +4763,10 @@
       <c r="BK33" s="29"/>
       <c r="BL33" s="29"/>
     </row>
-    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
       <c r="B34" s="77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="79">
@@ -4840,10 +4840,10 @@
       <c r="BK34" s="29"/>
       <c r="BL34" s="29"/>
     </row>
-    <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42"/>
       <c r="B35" s="77" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="79">
@@ -4917,13 +4917,13 @@
       <c r="BK35" s="29"/>
       <c r="BL35" s="29"/>
     </row>
-    <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="42"/>
-      <c r="B36" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="24">
+      <c r="B36" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79">
         <v>0</v>
       </c>
       <c r="E36" s="80">
@@ -4994,19 +4994,25 @@
       <c r="BK36" s="29"/>
       <c r="BL36" s="29"/>
     </row>
-    <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
+    <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="42"/>
+      <c r="B37" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="80">
+        <v>44547</v>
+      </c>
+      <c r="F37" s="80">
+        <v>44588</v>
+      </c>
       <c r="G37" s="12"/>
-      <c r="H37" s="12" t="str">
+      <c r="H37" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>42</v>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
@@ -5065,91 +5071,167 @@
       <c r="BK37" s="29"/>
       <c r="BL37" s="29"/>
     </row>
-    <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28" t="str">
+    <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="31"/>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
-      <c r="BH38" s="31"/>
-      <c r="BI38" s="31"/>
-      <c r="BJ38" s="31"/>
-      <c r="BK38" s="31"/>
-      <c r="BL38" s="31"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="9"/>
-      <c r="F40" s="44"/>
-    </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="10"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="29"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="29"/>
+      <c r="AS38" s="29"/>
+      <c r="AT38" s="29"/>
+      <c r="AU38" s="29"/>
+      <c r="AV38" s="29"/>
+      <c r="AW38" s="29"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="29"/>
+      <c r="AZ38" s="29"/>
+      <c r="BA38" s="29"/>
+      <c r="BB38" s="29"/>
+      <c r="BC38" s="29"/>
+      <c r="BD38" s="29"/>
+      <c r="BE38" s="29"/>
+      <c r="BF38" s="29"/>
+      <c r="BG38" s="29"/>
+      <c r="BH38" s="29"/>
+      <c r="BI38" s="29"/>
+      <c r="BJ38" s="29"/>
+      <c r="BK38" s="29"/>
+      <c r="BL38" s="29"/>
+    </row>
+    <row r="39" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+      <c r="AW39" s="31"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="31"/>
+      <c r="BA39" s="31"/>
+      <c r="BB39" s="31"/>
+      <c r="BC39" s="31"/>
+      <c r="BD39" s="31"/>
+      <c r="BE39" s="31"/>
+      <c r="BF39" s="31"/>
+      <c r="BG39" s="31"/>
+      <c r="BH39" s="31"/>
+      <c r="BI39" s="31"/>
+      <c r="BJ39" s="31"/>
+      <c r="BK39" s="31"/>
+      <c r="BL39" s="31"/>
+    </row>
+    <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="9"/>
+      <c r="F41" s="44"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -5157,13 +5239,8 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D36:D38 D31 D5:D22 D25:D29">
+  <conditionalFormatting sqref="D37:D39 D32 D5:D23 D26:D30">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5177,12 +5254,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:BL38">
+  <conditionalFormatting sqref="I3:BL39">
     <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$3,TODAY()&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL38">
+  <conditionalFormatting sqref="I5:BL39">
     <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$3,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$3)</formula>
     </cfRule>
@@ -5190,7 +5267,7 @@
       <formula>AND(task_end&gt;=I$3,task_start&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D34">
+  <conditionalFormatting sqref="D33:D35">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5204,7 +5281,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5218,7 +5295,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5232,7 +5309,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
+  <conditionalFormatting sqref="D24:D25">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5247,13 +5324,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="E2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Woche anzeigen" prompt="Das Ändern dieser Zahl bewirkt ein Scrollen in der Gantt-Diagrammansicht." sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="39" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5273,7 +5350,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36:D38 D31 D5:D22 D25:D29</xm:sqref>
+          <xm:sqref>D37:D39 D32 D5:D23 D26:D30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F4F6ECBA-56F2-40E7-BC69-50DE4088154B}">
@@ -5288,7 +5365,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32:D34</xm:sqref>
+          <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{836A1D7D-2623-4CA5-A848-84AB4FCB2080}">
@@ -5303,7 +5380,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{60326584-368A-4DC1-BE02-783B6804C060}">
@@ -5318,7 +5395,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{390AB96A-66A8-4F5C-BFDD-979F9461A950}">
@@ -5333,7 +5410,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23:D24</xm:sqref>
+          <xm:sqref>D24:D25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5342,7 +5419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5350,96 +5427,96 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="109.85546875" style="32" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="109.88671875" style="32" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:2" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:2" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="33"/>
     </row>
-    <row r="3" spans="1:2" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="38" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="39"/>
     </row>
-    <row r="4" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" s="35" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A4" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="32" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="32" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" s="35" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A8" s="36" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="32" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="32" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" s="35" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A11" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="32" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="32" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="35" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" s="35" customFormat="1" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A14" s="36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>

--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B561B6-C8C5-4C9F-805F-ABCBEAF6AD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BABF4C4-0A8A-4EB6-8FD8-F59CC46A084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Geben Sie den Namen des Projektleiters in Zelle B3 ein. Geben Sie das Startdatum für das Projekt in Zelle E3 ein. Start des Projekts: Die Bezeichnung steht in Zelle C3.</t>
   </si>
@@ -287,12 +287,6 @@
   </si>
   <si>
     <t>Startseite/Suchergebnis</t>
-  </si>
-  <si>
-    <t>DropDown Menüs</t>
-  </si>
-  <si>
-    <t>Daniela? Dean?</t>
   </si>
 </sst>
 </file>
@@ -1963,10 +1957,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL42"/>
+  <dimension ref="A1:BL41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A9" zoomScale="73" zoomScaleNormal="100" zoomScalePageLayoutView="73" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2653,7 +2647,7 @@
       <c r="F6" s="61"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="str">
-        <f t="shared" ref="H6:H39" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H6:H38" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I6" s="29"/>
@@ -3790,14 +3784,20 @@
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
       <c r="B21" s="81" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
+        <v>62</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="65">
+        <v>44491</v>
+      </c>
+      <c r="F21" s="65">
+        <v>44511</v>
+      </c>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="29"/>
@@ -3860,10 +3860,10 @@
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="42"/>
       <c r="B22" s="81" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D22" s="18">
         <v>0</v>
@@ -3936,10 +3936,10 @@
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42"/>
       <c r="B23" s="81" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="D23" s="18">
         <v>0</v>
@@ -4012,10 +4012,10 @@
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="81" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D24" s="18">
         <v>0</v>
@@ -4086,24 +4086,21 @@
       <c r="BL24" s="29"/>
     </row>
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="42"/>
-      <c r="B25" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="65">
-        <v>44491</v>
-      </c>
-      <c r="F25" s="65">
-        <v>44511</v>
-      </c>
+      <c r="A25" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="H25" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -4116,8 +4113,8 @@
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
-      <c r="U25" s="30"/>
-      <c r="V25" s="30"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
       <c r="Y25" s="29"/>
@@ -4162,20 +4159,24 @@
       <c r="BL25" s="29"/>
     </row>
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="51"/>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="68">
+        <v>44512</v>
+      </c>
+      <c r="F26" s="68">
+        <v>44546</v>
+      </c>
       <c r="G26" s="12"/>
-      <c r="H26" s="12" t="str">
+      <c r="H26" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>35</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -4237,7 +4238,7 @@
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
       <c r="B27" s="57" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="21">
@@ -4314,7 +4315,7 @@
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
       <c r="B28" s="57" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="21">
@@ -4391,7 +4392,7 @@
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
       <c r="B29" s="57" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="21">
@@ -4404,10 +4405,7 @@
         <v>44546</v>
       </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="12">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
+      <c r="H29" s="12"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -4468,7 +4466,7 @@
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
       <c r="B30" s="57" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="21">
@@ -4540,22 +4538,21 @@
       <c r="BL30" s="29"/>
     </row>
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="42"/>
-      <c r="B31" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="51"/>
-      <c r="D31" s="21">
-        <v>0</v>
-      </c>
-      <c r="E31" s="68">
-        <v>44512</v>
-      </c>
-      <c r="F31" s="68">
-        <v>44546</v>
-      </c>
+      <c r="A31" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="70"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -4614,20 +4611,24 @@
       <c r="BL31" s="29"/>
     </row>
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79">
+        <v>0</v>
+      </c>
+      <c r="E32" s="80">
+        <v>44547</v>
+      </c>
+      <c r="F32" s="80">
+        <v>44588</v>
+      </c>
       <c r="G32" s="12"/>
-      <c r="H32" s="12" t="str">
+      <c r="H32" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>42</v>
       </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
@@ -4689,7 +4690,7 @@
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
       <c r="B33" s="77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="79">
@@ -4766,7 +4767,7 @@
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
       <c r="B34" s="77" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="79">
@@ -4843,7 +4844,7 @@
     <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42"/>
       <c r="B35" s="77" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="79">
@@ -4919,11 +4920,11 @@
     </row>
     <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="42"/>
-      <c r="B36" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79">
+      <c r="B36" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="24">
         <v>0</v>
       </c>
       <c r="E36" s="80">
@@ -4995,24 +4996,18 @@
       <c r="BL36" s="29"/>
     </row>
     <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="42"/>
-      <c r="B37" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="24">
-        <v>0</v>
-      </c>
-      <c r="E37" s="80">
-        <v>44547</v>
-      </c>
-      <c r="F37" s="80">
-        <v>44588</v>
-      </c>
+      <c r="A37" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="59"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="12">
+      <c r="H37" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v/>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
@@ -5072,158 +5067,87 @@
       <c r="BL37" s="29"/>
     </row>
     <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12" t="str">
+      <c r="A38" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="29"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="29"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="29"/>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
-      <c r="X38" s="29"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="29"/>
-      <c r="AA38" s="29"/>
-      <c r="AB38" s="29"/>
-      <c r="AC38" s="29"/>
-      <c r="AD38" s="29"/>
-      <c r="AE38" s="29"/>
-      <c r="AF38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AH38" s="29"/>
-      <c r="AI38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AK38" s="29"/>
-      <c r="AL38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AN38" s="29"/>
-      <c r="AO38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AQ38" s="29"/>
-      <c r="AR38" s="29"/>
-      <c r="AS38" s="29"/>
-      <c r="AT38" s="29"/>
-      <c r="AU38" s="29"/>
-      <c r="AV38" s="29"/>
-      <c r="AW38" s="29"/>
-      <c r="AX38" s="29"/>
-      <c r="AY38" s="29"/>
-      <c r="AZ38" s="29"/>
-      <c r="BA38" s="29"/>
-      <c r="BB38" s="29"/>
-      <c r="BC38" s="29"/>
-      <c r="BD38" s="29"/>
-      <c r="BE38" s="29"/>
-      <c r="BF38" s="29"/>
-      <c r="BG38" s="29"/>
-      <c r="BH38" s="29"/>
-      <c r="BI38" s="29"/>
-      <c r="BJ38" s="29"/>
-      <c r="BK38" s="29"/>
-      <c r="BL38" s="29"/>
-    </row>
-    <row r="39" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-      <c r="AS39" s="31"/>
-      <c r="AT39" s="31"/>
-      <c r="AU39" s="31"/>
-      <c r="AV39" s="31"/>
-      <c r="AW39" s="31"/>
-      <c r="AX39" s="31"/>
-      <c r="AY39" s="31"/>
-      <c r="AZ39" s="31"/>
-      <c r="BA39" s="31"/>
-      <c r="BB39" s="31"/>
-      <c r="BC39" s="31"/>
-      <c r="BD39" s="31"/>
-      <c r="BE39" s="31"/>
-      <c r="BF39" s="31"/>
-      <c r="BG39" s="31"/>
-      <c r="BH39" s="31"/>
-      <c r="BI39" s="31"/>
-      <c r="BJ39" s="31"/>
-      <c r="BK39" s="31"/>
-      <c r="BL39" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+      <c r="T38" s="31"/>
+      <c r="U38" s="31"/>
+      <c r="V38" s="31"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="31"/>
+      <c r="Y38" s="31"/>
+      <c r="Z38" s="31"/>
+      <c r="AA38" s="31"/>
+      <c r="AB38" s="31"/>
+      <c r="AC38" s="31"/>
+      <c r="AD38" s="31"/>
+      <c r="AE38" s="31"/>
+      <c r="AF38" s="31"/>
+      <c r="AG38" s="31"/>
+      <c r="AH38" s="31"/>
+      <c r="AI38" s="31"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="31"/>
+      <c r="AL38" s="31"/>
+      <c r="AM38" s="31"/>
+      <c r="AN38" s="31"/>
+      <c r="AO38" s="31"/>
+      <c r="AP38" s="31"/>
+      <c r="AQ38" s="31"/>
+      <c r="AR38" s="31"/>
+      <c r="AS38" s="31"/>
+      <c r="AT38" s="31"/>
+      <c r="AU38" s="31"/>
+      <c r="AV38" s="31"/>
+      <c r="AW38" s="31"/>
+      <c r="AX38" s="31"/>
+      <c r="AY38" s="31"/>
+      <c r="AZ38" s="31"/>
+      <c r="BA38" s="31"/>
+      <c r="BB38" s="31"/>
+      <c r="BC38" s="31"/>
+      <c r="BD38" s="31"/>
+      <c r="BE38" s="31"/>
+      <c r="BF38" s="31"/>
+      <c r="BG38" s="31"/>
+      <c r="BH38" s="31"/>
+      <c r="BI38" s="31"/>
+      <c r="BJ38" s="31"/>
+      <c r="BK38" s="31"/>
+      <c r="BL38" s="31"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G40" s="4"/>
+      <c r="C40" s="9"/>
+      <c r="F40" s="44"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="9"/>
-      <c r="F41" s="44"/>
-    </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="10"/>
+      <c r="C41" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5240,7 +5164,7 @@
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D37:D39 D32 D5:D23 D26:D30">
+  <conditionalFormatting sqref="D36:D38 D31 D5:D22 D25:D29">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5254,12 +5178,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:BL39">
+  <conditionalFormatting sqref="I3:BL38">
     <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$3,TODAY()&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL39">
+  <conditionalFormatting sqref="I5:BL38">
     <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$3,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$3)</formula>
     </cfRule>
@@ -5267,7 +5191,7 @@
       <formula>AND(task_end&gt;=I$3,task_start&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
+  <conditionalFormatting sqref="D32:D34">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5281,7 +5205,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
+  <conditionalFormatting sqref="D35">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5295,7 +5219,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
+  <conditionalFormatting sqref="D30">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5309,7 +5233,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D25">
+  <conditionalFormatting sqref="D23:D24">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5330,7 +5254,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5350,7 +5274,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D37:D39 D32 D5:D23 D26:D30</xm:sqref>
+          <xm:sqref>D36:D38 D31 D5:D22 D25:D29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F4F6ECBA-56F2-40E7-BC69-50DE4088154B}">
@@ -5365,7 +5289,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:D35</xm:sqref>
+          <xm:sqref>D32:D34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{836A1D7D-2623-4CA5-A848-84AB4FCB2080}">
@@ -5380,7 +5304,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{60326584-368A-4DC1-BE02-783B6804C060}">
@@ -5395,7 +5319,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{390AB96A-66A8-4F5C-BFDD-979F9461A950}">
@@ -5410,7 +5334,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D24:D25</xm:sqref>
+          <xm:sqref>D23:D24</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BABF4C4-0A8A-4EB6-8FD8-F59CC46A084B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92499F78-121E-444D-891F-48A5F7B38FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>Geben Sie den Namen des Projektleiters in Zelle B3 ein. Geben Sie das Startdatum für das Projekt in Zelle E3 ein. Start des Projekts: Die Bezeichnung steht in Zelle C3.</t>
   </si>
@@ -287,6 +287,9 @@
   </si>
   <si>
     <t>Startseite/Suchergebnis</t>
+  </si>
+  <si>
+    <t>DropDown Menüs</t>
   </si>
 </sst>
 </file>
@@ -1328,6 +1331,16 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1340,16 +1353,6 @@
     <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1957,10 +1960,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL41"/>
+  <dimension ref="A1:BL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A2" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1982,118 +1985,118 @@
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="90">
+      <c r="D1" s="88"/>
+      <c r="E1" s="94">
         <f ca="1">TODAY()</f>
         <v>44504</v>
       </c>
-      <c r="F1" s="90"/>
+      <c r="F1" s="94"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="87">
+      <c r="I2" s="91">
         <f ca="1">I3</f>
         <v>44494</v>
       </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="87">
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="91">
         <f ca="1">P3</f>
         <v>44501</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="87">
+      <c r="Q2" s="92"/>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="93"/>
+      <c r="W2" s="91">
         <f ca="1">W3</f>
         <v>44508</v>
       </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="87">
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="93"/>
+      <c r="AD2" s="91">
         <f ca="1">AD3</f>
         <v>44515</v>
       </c>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="87">
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="92"/>
+      <c r="AH2" s="92"/>
+      <c r="AI2" s="92"/>
+      <c r="AJ2" s="93"/>
+      <c r="AK2" s="91">
         <f ca="1">AK3</f>
         <v>44522</v>
       </c>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="87">
+      <c r="AL2" s="92"/>
+      <c r="AM2" s="92"/>
+      <c r="AN2" s="92"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="93"/>
+      <c r="AR2" s="91">
         <f ca="1">AR3</f>
         <v>44529</v>
       </c>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="87">
+      <c r="AS2" s="92"/>
+      <c r="AT2" s="92"/>
+      <c r="AU2" s="92"/>
+      <c r="AV2" s="92"/>
+      <c r="AW2" s="92"/>
+      <c r="AX2" s="93"/>
+      <c r="AY2" s="91">
         <f ca="1">AY3</f>
         <v>44536</v>
       </c>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="87">
+      <c r="AZ2" s="92"/>
+      <c r="BA2" s="92"/>
+      <c r="BB2" s="92"/>
+      <c r="BC2" s="92"/>
+      <c r="BD2" s="92"/>
+      <c r="BE2" s="93"/>
+      <c r="BF2" s="91">
         <f ca="1">BF3</f>
         <v>44543</v>
       </c>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="89"/>
+      <c r="BG2" s="92"/>
+      <c r="BH2" s="92"/>
+      <c r="BI2" s="92"/>
+      <c r="BJ2" s="92"/>
+      <c r="BK2" s="92"/>
+      <c r="BL2" s="93"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
       <c r="I3" s="74">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
         <v>44494</v>
@@ -2647,7 +2650,7 @@
       <c r="F6" s="61"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="str">
-        <f t="shared" ref="H6:H38" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H6:H39" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I6" s="29"/>
@@ -3334,7 +3337,7 @@
         <v>45</v>
       </c>
       <c r="D15" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="65">
         <v>44491</v>
@@ -3410,7 +3413,7 @@
         <v>45</v>
       </c>
       <c r="D16" s="18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E16" s="65">
         <v>44491</v>
@@ -3714,7 +3717,7 @@
         <v>69</v>
       </c>
       <c r="D20" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="65">
         <v>44491</v>
@@ -3784,13 +3787,13 @@
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
       <c r="B21" s="81" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D21" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="65">
         <v>44491</v>
@@ -3860,10 +3863,10 @@
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="42"/>
       <c r="B22" s="81" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C22" s="82" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D22" s="18">
         <v>0</v>
@@ -3936,7 +3939,7 @@
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42"/>
       <c r="B23" s="81" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C23" s="82" t="s">
         <v>39</v>
@@ -4012,10 +4015,10 @@
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
       <c r="B24" s="81" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D24" s="18">
         <v>0</v>
@@ -4086,21 +4089,24 @@
       <c r="BL24" s="29"/>
     </row>
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="67"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="65">
+        <v>44491</v>
+      </c>
+      <c r="F25" s="65">
+        <v>44511</v>
+      </c>
       <c r="G25" s="12"/>
-      <c r="H25" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H25" s="12"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
       <c r="K25" s="29"/>
@@ -4113,8 +4119,8 @@
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
+      <c r="U25" s="30"/>
+      <c r="V25" s="30"/>
       <c r="W25" s="29"/>
       <c r="X25" s="29"/>
       <c r="Y25" s="29"/>
@@ -4159,24 +4165,20 @@
       <c r="BL25" s="29"/>
     </row>
     <row r="26" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="42"/>
-      <c r="B26" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="68">
-        <v>44512</v>
-      </c>
-      <c r="F26" s="68">
-        <v>44546</v>
-      </c>
+      <c r="A26" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="50"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="12">
+      <c r="H26" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v/>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -4238,7 +4240,7 @@
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
       <c r="B27" s="57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="21">
@@ -4315,7 +4317,7 @@
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
       <c r="B28" s="57" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C28" s="51"/>
       <c r="D28" s="21">
@@ -4392,7 +4394,7 @@
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
       <c r="B29" s="57" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="51"/>
       <c r="D29" s="21">
@@ -4405,7 +4407,10 @@
         <v>44546</v>
       </c>
       <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="12">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -4466,7 +4471,7 @@
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
       <c r="B30" s="57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="51"/>
       <c r="D30" s="21">
@@ -4538,21 +4543,22 @@
       <c r="BL30" s="29"/>
     </row>
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="70"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="51"/>
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="68">
+        <v>44512</v>
+      </c>
+      <c r="F31" s="68">
+        <v>44546</v>
+      </c>
       <c r="G31" s="12"/>
-      <c r="H31" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H31" s="12"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
       <c r="K31" s="29"/>
@@ -4611,24 +4617,20 @@
       <c r="BL31" s="29"/>
     </row>
     <row r="32" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="42"/>
-      <c r="B32" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79">
-        <v>0</v>
-      </c>
-      <c r="E32" s="80">
-        <v>44547</v>
-      </c>
-      <c r="F32" s="80">
-        <v>44588</v>
-      </c>
+      <c r="A32" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="70"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="12">
+      <c r="H32" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>42</v>
+        <v/>
       </c>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
@@ -4690,7 +4692,7 @@
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
       <c r="B33" s="77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="79">
@@ -4767,7 +4769,7 @@
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
       <c r="B34" s="77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="79">
@@ -4844,7 +4846,7 @@
     <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42"/>
       <c r="B35" s="77" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="79">
@@ -4920,11 +4922,11 @@
     </row>
     <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="42"/>
-      <c r="B36" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="24">
+      <c r="B36" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79">
         <v>0</v>
       </c>
       <c r="E36" s="80">
@@ -4996,18 +4998,24 @@
       <c r="BL36" s="29"/>
     </row>
     <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="59"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="24">
+        <v>0</v>
+      </c>
+      <c r="E37" s="80">
+        <v>44547</v>
+      </c>
+      <c r="F37" s="80">
+        <v>44588</v>
+      </c>
       <c r="G37" s="12"/>
-      <c r="H37" s="12" t="str">
+      <c r="H37" s="12">
         <f t="shared" si="5"/>
-        <v/>
+        <v>42</v>
       </c>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
@@ -5067,95 +5075,161 @@
       <c r="BL37" s="29"/>
     </row>
     <row r="38" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28" t="str">
+      <c r="A38" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="59"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-      <c r="AS38" s="31"/>
-      <c r="AT38" s="31"/>
-      <c r="AU38" s="31"/>
-      <c r="AV38" s="31"/>
-      <c r="AW38" s="31"/>
-      <c r="AX38" s="31"/>
-      <c r="AY38" s="31"/>
-      <c r="AZ38" s="31"/>
-      <c r="BA38" s="31"/>
-      <c r="BB38" s="31"/>
-      <c r="BC38" s="31"/>
-      <c r="BD38" s="31"/>
-      <c r="BE38" s="31"/>
-      <c r="BF38" s="31"/>
-      <c r="BG38" s="31"/>
-      <c r="BH38" s="31"/>
-      <c r="BI38" s="31"/>
-      <c r="BJ38" s="31"/>
-      <c r="BK38" s="31"/>
-      <c r="BL38" s="31"/>
-    </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G39" s="4"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+      <c r="AI38" s="29"/>
+      <c r="AJ38" s="29"/>
+      <c r="AK38" s="29"/>
+      <c r="AL38" s="29"/>
+      <c r="AM38" s="29"/>
+      <c r="AN38" s="29"/>
+      <c r="AO38" s="29"/>
+      <c r="AP38" s="29"/>
+      <c r="AQ38" s="29"/>
+      <c r="AR38" s="29"/>
+      <c r="AS38" s="29"/>
+      <c r="AT38" s="29"/>
+      <c r="AU38" s="29"/>
+      <c r="AV38" s="29"/>
+      <c r="AW38" s="29"/>
+      <c r="AX38" s="29"/>
+      <c r="AY38" s="29"/>
+      <c r="AZ38" s="29"/>
+      <c r="BA38" s="29"/>
+      <c r="BB38" s="29"/>
+      <c r="BC38" s="29"/>
+      <c r="BD38" s="29"/>
+      <c r="BE38" s="29"/>
+      <c r="BF38" s="29"/>
+      <c r="BG38" s="29"/>
+      <c r="BH38" s="29"/>
+      <c r="BI38" s="29"/>
+      <c r="BJ38" s="29"/>
+      <c r="BK38" s="29"/>
+      <c r="BL38" s="29"/>
+    </row>
+    <row r="39" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+      <c r="T39" s="31"/>
+      <c r="U39" s="31"/>
+      <c r="V39" s="31"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="31"/>
+      <c r="Y39" s="31"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+      <c r="AW39" s="31"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="31"/>
+      <c r="BA39" s="31"/>
+      <c r="BB39" s="31"/>
+      <c r="BC39" s="31"/>
+      <c r="BD39" s="31"/>
+      <c r="BE39" s="31"/>
+      <c r="BF39" s="31"/>
+      <c r="BG39" s="31"/>
+      <c r="BH39" s="31"/>
+      <c r="BI39" s="31"/>
+      <c r="BJ39" s="31"/>
+      <c r="BK39" s="31"/>
+      <c r="BL39" s="31"/>
     </row>
     <row r="40" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="9"/>
-      <c r="F40" s="44"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="F41" s="44"/>
+    </row>
+    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -5163,8 +5237,13 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D36:D38 D31 D5:D22 D25:D29">
+  <conditionalFormatting sqref="D37:D39 D32 D5:D23 D26:D30">
     <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5178,12 +5257,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:BL38">
+  <conditionalFormatting sqref="I3:BL39">
     <cfRule type="expression" dxfId="2" priority="37">
       <formula>AND(TODAY()&gt;=I$3,TODAY()&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL38">
+  <conditionalFormatting sqref="I5:BL39">
     <cfRule type="expression" dxfId="1" priority="31">
       <formula>AND(task_start&lt;=I$3,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$3)</formula>
     </cfRule>
@@ -5191,7 +5270,7 @@
       <formula>AND(task_end&gt;=I$3,task_start&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32:D34">
+  <conditionalFormatting sqref="D33:D35">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5205,7 +5284,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
+  <conditionalFormatting sqref="D36">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5219,7 +5298,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
+  <conditionalFormatting sqref="D31">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5233,7 +5312,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
+  <conditionalFormatting sqref="D24:D25">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5254,7 +5333,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="38" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="37" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5274,7 +5353,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D36:D38 D31 D5:D22 D25:D29</xm:sqref>
+          <xm:sqref>D37:D39 D32 D5:D23 D26:D30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F4F6ECBA-56F2-40E7-BC69-50DE4088154B}">
@@ -5289,7 +5368,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32:D34</xm:sqref>
+          <xm:sqref>D33:D35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{836A1D7D-2623-4CA5-A848-84AB4FCB2080}">
@@ -5304,7 +5383,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D35</xm:sqref>
+          <xm:sqref>D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{60326584-368A-4DC1-BE02-783B6804C060}">
@@ -5319,7 +5398,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D30</xm:sqref>
+          <xm:sqref>D31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{390AB96A-66A8-4F5C-BFDD-979F9461A950}">
@@ -5334,7 +5413,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D23:D24</xm:sqref>
+          <xm:sqref>D24:D25</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92499F78-121E-444D-891F-48A5F7B38FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C89312-16D5-45CB-B995-2C7B158712AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -283,13 +283,13 @@
     <t>About Us</t>
   </si>
   <si>
-    <t>Jana,Dean,Raphael,Daniela</t>
-  </si>
-  <si>
     <t>Startseite/Suchergebnis</t>
   </si>
   <si>
     <t>DropDown Menüs</t>
+  </si>
+  <si>
+    <t>Dean,Raphael,Daniela</t>
   </si>
 </sst>
 </file>
@@ -1331,6 +1331,18 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1341,18 +1353,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1963,7 +1963,7 @@
   <dimension ref="A1:BL42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1985,341 +1985,341 @@
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="94">
+      <c r="D1" s="92"/>
+      <c r="E1" s="90">
         <f ca="1">TODAY()</f>
-        <v>44504</v>
-      </c>
-      <c r="F1" s="94"/>
+        <v>44507</v>
+      </c>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="88"/>
+      <c r="D2" s="92"/>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="91">
+      <c r="I2" s="87">
         <f ca="1">I3</f>
-        <v>44494</v>
-      </c>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="91">
+        <v>44501</v>
+      </c>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="87">
         <f ca="1">P3</f>
-        <v>44501</v>
-      </c>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="92"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="92"/>
-      <c r="U2" s="92"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="91">
+        <v>44508</v>
+      </c>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="87">
         <f ca="1">W3</f>
-        <v>44508</v>
-      </c>
-      <c r="X2" s="92"/>
-      <c r="Y2" s="92"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="92"/>
-      <c r="AB2" s="92"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="91">
+        <v>44515</v>
+      </c>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="87">
         <f ca="1">AD3</f>
-        <v>44515</v>
-      </c>
-      <c r="AE2" s="92"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="92"/>
-      <c r="AH2" s="92"/>
-      <c r="AI2" s="92"/>
-      <c r="AJ2" s="93"/>
-      <c r="AK2" s="91">
+        <v>44522</v>
+      </c>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="89"/>
+      <c r="AK2" s="87">
         <f ca="1">AK3</f>
-        <v>44522</v>
-      </c>
-      <c r="AL2" s="92"/>
-      <c r="AM2" s="92"/>
-      <c r="AN2" s="92"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="93"/>
-      <c r="AR2" s="91">
+        <v>44529</v>
+      </c>
+      <c r="AL2" s="88"/>
+      <c r="AM2" s="88"/>
+      <c r="AN2" s="88"/>
+      <c r="AO2" s="88"/>
+      <c r="AP2" s="88"/>
+      <c r="AQ2" s="89"/>
+      <c r="AR2" s="87">
         <f ca="1">AR3</f>
-        <v>44529</v>
-      </c>
-      <c r="AS2" s="92"/>
-      <c r="AT2" s="92"/>
-      <c r="AU2" s="92"/>
-      <c r="AV2" s="92"/>
-      <c r="AW2" s="92"/>
-      <c r="AX2" s="93"/>
-      <c r="AY2" s="91">
+        <v>44536</v>
+      </c>
+      <c r="AS2" s="88"/>
+      <c r="AT2" s="88"/>
+      <c r="AU2" s="88"/>
+      <c r="AV2" s="88"/>
+      <c r="AW2" s="88"/>
+      <c r="AX2" s="89"/>
+      <c r="AY2" s="87">
         <f ca="1">AY3</f>
-        <v>44536</v>
-      </c>
-      <c r="AZ2" s="92"/>
-      <c r="BA2" s="92"/>
-      <c r="BB2" s="92"/>
-      <c r="BC2" s="92"/>
-      <c r="BD2" s="92"/>
-      <c r="BE2" s="93"/>
-      <c r="BF2" s="91">
+        <v>44543</v>
+      </c>
+      <c r="AZ2" s="88"/>
+      <c r="BA2" s="88"/>
+      <c r="BB2" s="88"/>
+      <c r="BC2" s="88"/>
+      <c r="BD2" s="88"/>
+      <c r="BE2" s="89"/>
+      <c r="BF2" s="87">
         <f ca="1">BF3</f>
-        <v>44543</v>
-      </c>
-      <c r="BG2" s="92"/>
-      <c r="BH2" s="92"/>
-      <c r="BI2" s="92"/>
-      <c r="BJ2" s="92"/>
-      <c r="BK2" s="92"/>
-      <c r="BL2" s="93"/>
+        <v>44550</v>
+      </c>
+      <c r="BG2" s="88"/>
+      <c r="BH2" s="88"/>
+      <c r="BI2" s="88"/>
+      <c r="BJ2" s="88"/>
+      <c r="BK2" s="88"/>
+      <c r="BL2" s="89"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
       <c r="I3" s="74">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44494</v>
+        <v>44501</v>
       </c>
       <c r="J3" s="75">
         <f ca="1">I3+1</f>
-        <v>44495</v>
+        <v>44502</v>
       </c>
       <c r="K3" s="75">
         <f t="shared" ref="K3:AX3" ca="1" si="0">J3+1</f>
-        <v>44496</v>
+        <v>44503</v>
       </c>
       <c r="L3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44497</v>
+        <v>44504</v>
       </c>
       <c r="M3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44498</v>
+        <v>44505</v>
       </c>
       <c r="N3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44499</v>
+        <v>44506</v>
       </c>
       <c r="O3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44500</v>
+        <v>44507</v>
       </c>
       <c r="P3" s="74">
         <f ca="1">O3+1</f>
-        <v>44501</v>
+        <v>44508</v>
       </c>
       <c r="Q3" s="75">
         <f ca="1">P3+1</f>
-        <v>44502</v>
+        <v>44509</v>
       </c>
       <c r="R3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44503</v>
+        <v>44510</v>
       </c>
       <c r="S3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
+        <v>44511</v>
       </c>
       <c r="T3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
+        <v>44512</v>
       </c>
       <c r="U3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
+        <v>44513</v>
       </c>
       <c r="V3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
+        <v>44514</v>
       </c>
       <c r="W3" s="74">
         <f ca="1">V3+1</f>
-        <v>44508</v>
+        <v>44515</v>
       </c>
       <c r="X3" s="75">
         <f ca="1">W3+1</f>
-        <v>44509</v>
+        <v>44516</v>
       </c>
       <c r="Y3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44510</v>
+        <v>44517</v>
       </c>
       <c r="Z3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44511</v>
+        <v>44518</v>
       </c>
       <c r="AA3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
+        <v>44519</v>
       </c>
       <c r="AB3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
+        <v>44520</v>
       </c>
       <c r="AC3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44514</v>
+        <v>44521</v>
       </c>
       <c r="AD3" s="74">
         <f ca="1">AC3+1</f>
-        <v>44515</v>
+        <v>44522</v>
       </c>
       <c r="AE3" s="75">
         <f ca="1">AD3+1</f>
-        <v>44516</v>
+        <v>44523</v>
       </c>
       <c r="AF3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44517</v>
+        <v>44524</v>
       </c>
       <c r="AG3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44518</v>
+        <v>44525</v>
       </c>
       <c r="AH3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44519</v>
+        <v>44526</v>
       </c>
       <c r="AI3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44520</v>
+        <v>44527</v>
       </c>
       <c r="AJ3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44521</v>
+        <v>44528</v>
       </c>
       <c r="AK3" s="74">
         <f ca="1">AJ3+1</f>
-        <v>44522</v>
+        <v>44529</v>
       </c>
       <c r="AL3" s="75">
         <f ca="1">AK3+1</f>
-        <v>44523</v>
+        <v>44530</v>
       </c>
       <c r="AM3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44524</v>
+        <v>44531</v>
       </c>
       <c r="AN3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44525</v>
+        <v>44532</v>
       </c>
       <c r="AO3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44526</v>
+        <v>44533</v>
       </c>
       <c r="AP3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44527</v>
+        <v>44534</v>
       </c>
       <c r="AQ3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44528</v>
+        <v>44535</v>
       </c>
       <c r="AR3" s="74">
         <f ca="1">AQ3+1</f>
-        <v>44529</v>
+        <v>44536</v>
       </c>
       <c r="AS3" s="75">
         <f ca="1">AR3+1</f>
-        <v>44530</v>
+        <v>44537</v>
       </c>
       <c r="AT3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44531</v>
+        <v>44538</v>
       </c>
       <c r="AU3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44532</v>
+        <v>44539</v>
       </c>
       <c r="AV3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44533</v>
+        <v>44540</v>
       </c>
       <c r="AW3" s="75">
         <f t="shared" ca="1" si="0"/>
-        <v>44534</v>
+        <v>44541</v>
       </c>
       <c r="AX3" s="76">
         <f t="shared" ca="1" si="0"/>
-        <v>44535</v>
+        <v>44542</v>
       </c>
       <c r="AY3" s="74">
         <f ca="1">AX3+1</f>
-        <v>44536</v>
+        <v>44543</v>
       </c>
       <c r="AZ3" s="75">
         <f ca="1">AY3+1</f>
-        <v>44537</v>
+        <v>44544</v>
       </c>
       <c r="BA3" s="75">
         <f t="shared" ref="BA3:BE3" ca="1" si="1">AZ3+1</f>
-        <v>44538</v>
+        <v>44545</v>
       </c>
       <c r="BB3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44539</v>
+        <v>44546</v>
       </c>
       <c r="BC3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44540</v>
+        <v>44547</v>
       </c>
       <c r="BD3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44541</v>
+        <v>44548</v>
       </c>
       <c r="BE3" s="76">
         <f t="shared" ca="1" si="1"/>
-        <v>44542</v>
+        <v>44549</v>
       </c>
       <c r="BF3" s="74">
         <f ca="1">BE3+1</f>
-        <v>44543</v>
+        <v>44550</v>
       </c>
       <c r="BG3" s="75">
         <f ca="1">BF3+1</f>
-        <v>44544</v>
+        <v>44551</v>
       </c>
       <c r="BH3" s="75">
         <f t="shared" ref="BH3:BL3" ca="1" si="2">BG3+1</f>
-        <v>44545</v>
+        <v>44552</v>
       </c>
       <c r="BI3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44546</v>
+        <v>44553</v>
       </c>
       <c r="BJ3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44547</v>
+        <v>44554</v>
       </c>
       <c r="BK3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44548</v>
+        <v>44555</v>
       </c>
       <c r="BL3" s="76">
         <f t="shared" ca="1" si="2"/>
-        <v>44549</v>
+        <v>44556</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3252,7 +3252,7 @@
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43"/>
       <c r="B14" s="81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="82" t="s">
         <v>39</v>
@@ -3714,7 +3714,7 @@
         <v>65</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" s="18">
         <v>1</v>
@@ -3787,7 +3787,7 @@
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
       <c r="B21" s="81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="82" t="s">
         <v>39</v>
@@ -3942,7 +3942,7 @@
         <v>57</v>
       </c>
       <c r="C23" s="82" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D23" s="18">
         <v>0</v>
@@ -5230,6 +5230,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -5237,11 +5242,6 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
   <conditionalFormatting sqref="D37:D39 D32 D5:D23 D26:D30">
     <cfRule type="dataBar" priority="18">

--- a/Business_proposal/GANTT-Diagramm.xlsx
+++ b/Business_proposal/GANTT-Diagramm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C89312-16D5-45CB-B995-2C7B158712AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63868892-F0CD-4739-8E6C-91402C776D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
   <si>
     <t>Geben Sie den Namen des Projektleiters in Zelle B3 ein. Geben Sie das Startdatum für das Projekt in Zelle E3 ein. Start des Projekts: Die Bezeichnung steht in Zelle C3.</t>
   </si>
@@ -229,9 +229,6 @@
     <t>Registrierung</t>
   </si>
   <si>
-    <t>Warenkorb</t>
-  </si>
-  <si>
     <t>Phase 3 Dynamischer Pototyp</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
     <t>Artikel einstellen/bearbeiten</t>
   </si>
   <si>
-    <t>Suchfunktion</t>
-  </si>
-  <si>
     <t>Bezahlfunktion</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>Probedurchlauf</t>
   </si>
   <si>
-    <t>Datenbank erstellen</t>
-  </si>
-  <si>
     <t>Raphael</t>
   </si>
   <si>
@@ -290,6 +281,21 @@
   </si>
   <si>
     <t>Dean,Raphael,Daniela</t>
+  </si>
+  <si>
+    <t>Kontodaten ändern</t>
+  </si>
+  <si>
+    <t>Datenbank konfugrieren</t>
+  </si>
+  <si>
+    <t>Artikel einstellen/löschen</t>
+  </si>
+  <si>
+    <t>Suchfunktion mit ISBN</t>
+  </si>
+  <si>
+    <t>Suchfunktion mit Kategorie</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1087,7 @@
     <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1223,9 +1229,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="11" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1302,9 +1305,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="2" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="2" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="34" borderId="2" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1331,6 +1331,16 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1343,16 +1353,15 @@
     <xf numFmtId="168" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1962,8 +1971,8 @@
   </sheetPr>
   <dimension ref="A1:BL42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A10" zoomScale="80" zoomScaleNormal="100" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1985,341 +1994,341 @@
         <v>0</v>
       </c>
       <c r="B1" s="46"/>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="90">
+      <c r="D1" s="86"/>
+      <c r="E1" s="92">
         <f ca="1">TODAY()</f>
-        <v>44507</v>
-      </c>
-      <c r="F1" s="90"/>
+        <v>44530</v>
+      </c>
+      <c r="F1" s="92"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="5">
         <v>0</v>
       </c>
-      <c r="I2" s="87">
+      <c r="I2" s="89">
         <f ca="1">I3</f>
-        <v>44501</v>
-      </c>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="87">
+        <v>44522</v>
+      </c>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="89">
         <f ca="1">P3</f>
-        <v>44508</v>
-      </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="87">
+        <v>44529</v>
+      </c>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="89">
         <f ca="1">W3</f>
-        <v>44515</v>
-      </c>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="87">
+        <v>44536</v>
+      </c>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="89">
         <f ca="1">AD3</f>
-        <v>44522</v>
-      </c>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="89"/>
-      <c r="AK2" s="87">
+        <v>44543</v>
+      </c>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="90"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="89">
         <f ca="1">AK3</f>
-        <v>44529</v>
-      </c>
-      <c r="AL2" s="88"/>
-      <c r="AM2" s="88"/>
-      <c r="AN2" s="88"/>
-      <c r="AO2" s="88"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="87">
+        <v>44550</v>
+      </c>
+      <c r="AL2" s="90"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="90"/>
+      <c r="AP2" s="90"/>
+      <c r="AQ2" s="91"/>
+      <c r="AR2" s="89">
         <f ca="1">AR3</f>
-        <v>44536</v>
-      </c>
-      <c r="AS2" s="88"/>
-      <c r="AT2" s="88"/>
-      <c r="AU2" s="88"/>
-      <c r="AV2" s="88"/>
-      <c r="AW2" s="88"/>
-      <c r="AX2" s="89"/>
-      <c r="AY2" s="87">
+        <v>44557</v>
+      </c>
+      <c r="AS2" s="90"/>
+      <c r="AT2" s="90"/>
+      <c r="AU2" s="90"/>
+      <c r="AV2" s="90"/>
+      <c r="AW2" s="90"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="89">
         <f ca="1">AY3</f>
-        <v>44543</v>
-      </c>
-      <c r="AZ2" s="88"/>
-      <c r="BA2" s="88"/>
-      <c r="BB2" s="88"/>
-      <c r="BC2" s="88"/>
-      <c r="BD2" s="88"/>
-      <c r="BE2" s="89"/>
-      <c r="BF2" s="87">
+        <v>44564</v>
+      </c>
+      <c r="AZ2" s="90"/>
+      <c r="BA2" s="90"/>
+      <c r="BB2" s="90"/>
+      <c r="BC2" s="90"/>
+      <c r="BD2" s="90"/>
+      <c r="BE2" s="91"/>
+      <c r="BF2" s="89">
         <f ca="1">BF3</f>
-        <v>44550</v>
-      </c>
-      <c r="BG2" s="88"/>
-      <c r="BH2" s="88"/>
-      <c r="BI2" s="88"/>
-      <c r="BJ2" s="88"/>
-      <c r="BK2" s="88"/>
-      <c r="BL2" s="89"/>
+        <v>44571</v>
+      </c>
+      <c r="BG2" s="90"/>
+      <c r="BH2" s="90"/>
+      <c r="BI2" s="90"/>
+      <c r="BJ2" s="90"/>
+      <c r="BK2" s="90"/>
+      <c r="BL2" s="91"/>
     </row>
     <row r="3" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="I3" s="74">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="I3" s="73">
         <f ca="1">Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Woche_anzeigen-1)</f>
-        <v>44501</v>
-      </c>
-      <c r="J3" s="75">
+        <v>44522</v>
+      </c>
+      <c r="J3" s="74">
         <f ca="1">I3+1</f>
-        <v>44502</v>
-      </c>
-      <c r="K3" s="75">
+        <v>44523</v>
+      </c>
+      <c r="K3" s="74">
         <f t="shared" ref="K3:AX3" ca="1" si="0">J3+1</f>
-        <v>44503</v>
-      </c>
-      <c r="L3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44504</v>
-      </c>
-      <c r="M3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44505</v>
-      </c>
-      <c r="N3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44506</v>
-      </c>
-      <c r="O3" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>44507</v>
-      </c>
-      <c r="P3" s="74">
-        <f ca="1">O3+1</f>
-        <v>44508</v>
-      </c>
-      <c r="Q3" s="75">
-        <f ca="1">P3+1</f>
-        <v>44509</v>
-      </c>
-      <c r="R3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44510</v>
-      </c>
-      <c r="S3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44511</v>
-      </c>
-      <c r="T3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44512</v>
-      </c>
-      <c r="U3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44513</v>
-      </c>
-      <c r="V3" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>44514</v>
-      </c>
-      <c r="W3" s="74">
-        <f ca="1">V3+1</f>
-        <v>44515</v>
-      </c>
-      <c r="X3" s="75">
-        <f ca="1">W3+1</f>
-        <v>44516</v>
-      </c>
-      <c r="Y3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44517</v>
-      </c>
-      <c r="Z3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44518</v>
-      </c>
-      <c r="AA3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44519</v>
-      </c>
-      <c r="AB3" s="75">
-        <f t="shared" ca="1" si="0"/>
-        <v>44520</v>
-      </c>
-      <c r="AC3" s="76">
-        <f t="shared" ca="1" si="0"/>
-        <v>44521</v>
-      </c>
-      <c r="AD3" s="74">
-        <f ca="1">AC3+1</f>
-        <v>44522</v>
-      </c>
-      <c r="AE3" s="75">
-        <f ca="1">AD3+1</f>
-        <v>44523</v>
-      </c>
-      <c r="AF3" s="75">
-        <f t="shared" ca="1" si="0"/>
         <v>44524</v>
       </c>
-      <c r="AG3" s="75">
+      <c r="L3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44525</v>
       </c>
-      <c r="AH3" s="75">
+      <c r="M3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44526</v>
       </c>
-      <c r="AI3" s="75">
+      <c r="N3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44527</v>
       </c>
-      <c r="AJ3" s="76">
+      <c r="O3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44528</v>
       </c>
-      <c r="AK3" s="74">
-        <f ca="1">AJ3+1</f>
+      <c r="P3" s="73">
+        <f ca="1">O3+1</f>
         <v>44529</v>
       </c>
-      <c r="AL3" s="75">
-        <f ca="1">AK3+1</f>
+      <c r="Q3" s="74">
+        <f ca="1">P3+1</f>
         <v>44530</v>
       </c>
-      <c r="AM3" s="75">
+      <c r="R3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44531</v>
       </c>
-      <c r="AN3" s="75">
+      <c r="S3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44532</v>
       </c>
-      <c r="AO3" s="75">
+      <c r="T3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44533</v>
       </c>
-      <c r="AP3" s="75">
+      <c r="U3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44534</v>
       </c>
-      <c r="AQ3" s="76">
+      <c r="V3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44535</v>
       </c>
-      <c r="AR3" s="74">
-        <f ca="1">AQ3+1</f>
+      <c r="W3" s="73">
+        <f ca="1">V3+1</f>
         <v>44536</v>
       </c>
-      <c r="AS3" s="75">
-        <f ca="1">AR3+1</f>
+      <c r="X3" s="74">
+        <f ca="1">W3+1</f>
         <v>44537</v>
       </c>
-      <c r="AT3" s="75">
+      <c r="Y3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44538</v>
       </c>
-      <c r="AU3" s="75">
+      <c r="Z3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44539</v>
       </c>
-      <c r="AV3" s="75">
+      <c r="AA3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44540</v>
       </c>
-      <c r="AW3" s="75">
+      <c r="AB3" s="74">
         <f t="shared" ca="1" si="0"/>
         <v>44541</v>
       </c>
-      <c r="AX3" s="76">
+      <c r="AC3" s="75">
         <f t="shared" ca="1" si="0"/>
         <v>44542</v>
       </c>
-      <c r="AY3" s="74">
+      <c r="AD3" s="73">
+        <f ca="1">AC3+1</f>
+        <v>44543</v>
+      </c>
+      <c r="AE3" s="74">
+        <f ca="1">AD3+1</f>
+        <v>44544</v>
+      </c>
+      <c r="AF3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44545</v>
+      </c>
+      <c r="AG3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44546</v>
+      </c>
+      <c r="AH3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44547</v>
+      </c>
+      <c r="AI3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44548</v>
+      </c>
+      <c r="AJ3" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44549</v>
+      </c>
+      <c r="AK3" s="73">
+        <f ca="1">AJ3+1</f>
+        <v>44550</v>
+      </c>
+      <c r="AL3" s="74">
+        <f ca="1">AK3+1</f>
+        <v>44551</v>
+      </c>
+      <c r="AM3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44552</v>
+      </c>
+      <c r="AN3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44553</v>
+      </c>
+      <c r="AO3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44554</v>
+      </c>
+      <c r="AP3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44555</v>
+      </c>
+      <c r="AQ3" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44556</v>
+      </c>
+      <c r="AR3" s="73">
+        <f ca="1">AQ3+1</f>
+        <v>44557</v>
+      </c>
+      <c r="AS3" s="74">
+        <f ca="1">AR3+1</f>
+        <v>44558</v>
+      </c>
+      <c r="AT3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44559</v>
+      </c>
+      <c r="AU3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44560</v>
+      </c>
+      <c r="AV3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44561</v>
+      </c>
+      <c r="AW3" s="74">
+        <f t="shared" ca="1" si="0"/>
+        <v>44562</v>
+      </c>
+      <c r="AX3" s="75">
+        <f t="shared" ca="1" si="0"/>
+        <v>44563</v>
+      </c>
+      <c r="AY3" s="73">
         <f ca="1">AX3+1</f>
-        <v>44543</v>
-      </c>
-      <c r="AZ3" s="75">
+        <v>44564</v>
+      </c>
+      <c r="AZ3" s="74">
         <f ca="1">AY3+1</f>
-        <v>44544</v>
-      </c>
-      <c r="BA3" s="75">
+        <v>44565</v>
+      </c>
+      <c r="BA3" s="74">
         <f t="shared" ref="BA3:BE3" ca="1" si="1">AZ3+1</f>
-        <v>44545</v>
-      </c>
-      <c r="BB3" s="75">
+        <v>44566</v>
+      </c>
+      <c r="BB3" s="74">
         <f t="shared" ca="1" si="1"/>
-        <v>44546</v>
-      </c>
-      <c r="BC3" s="75">
+        <v>44567</v>
+      </c>
+      <c r="BC3" s="74">
         <f t="shared" ca="1" si="1"/>
-        <v>44547</v>
-      </c>
-      <c r="BD3" s="75">
+        <v>44568</v>
+      </c>
+      <c r="BD3" s="74">
         <f t="shared" ca="1" si="1"/>
-        <v>44548</v>
-      </c>
-      <c r="BE3" s="76">
+        <v>44569</v>
+      </c>
+      <c r="BE3" s="75">
         <f t="shared" ca="1" si="1"/>
-        <v>44549</v>
-      </c>
-      <c r="BF3" s="74">
+        <v>44570</v>
+      </c>
+      <c r="BF3" s="73">
         <f ca="1">BE3+1</f>
-        <v>44550</v>
-      </c>
-      <c r="BG3" s="75">
+        <v>44571</v>
+      </c>
+      <c r="BG3" s="74">
         <f ca="1">BF3+1</f>
-        <v>44551</v>
-      </c>
-      <c r="BH3" s="75">
+        <v>44572</v>
+      </c>
+      <c r="BH3" s="74">
         <f t="shared" ref="BH3:BL3" ca="1" si="2">BG3+1</f>
-        <v>44552</v>
-      </c>
-      <c r="BI3" s="75">
+        <v>44573</v>
+      </c>
+      <c r="BI3" s="74">
         <f t="shared" ca="1" si="2"/>
-        <v>44553</v>
-      </c>
-      <c r="BJ3" s="75">
+        <v>44574</v>
+      </c>
+      <c r="BJ3" s="74">
         <f t="shared" ca="1" si="2"/>
-        <v>44554</v>
-      </c>
-      <c r="BK3" s="75">
+        <v>44575</v>
+      </c>
+      <c r="BK3" s="74">
         <f t="shared" ca="1" si="2"/>
-        <v>44555</v>
-      </c>
-      <c r="BL3" s="76">
+        <v>44576</v>
+      </c>
+      <c r="BL3" s="75">
         <f t="shared" ca="1" si="2"/>
-        <v>44556</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2646,8 +2655,8 @@
       </c>
       <c r="C6" s="47"/>
       <c r="D6" s="14"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12" t="str">
         <f t="shared" ref="H6:H39" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2714,7 +2723,7 @@
       <c r="A7" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="54" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="48" t="s">
@@ -2723,10 +2732,10 @@
       <c r="D7" s="15">
         <v>1</v>
       </c>
-      <c r="E7" s="62">
+      <c r="E7" s="61">
         <v>44482</v>
       </c>
-      <c r="F7" s="62">
+      <c r="F7" s="61">
         <v>44490</v>
       </c>
       <c r="G7" s="12"/>
@@ -2793,7 +2802,7 @@
     </row>
     <row r="8" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="43"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="54" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="48" t="s">
@@ -2802,10 +2811,10 @@
       <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="E8" s="62">
+      <c r="E8" s="61">
         <v>44485</v>
       </c>
-      <c r="F8" s="62">
+      <c r="F8" s="61">
         <v>44490</v>
       </c>
       <c r="G8" s="12"/>
@@ -2869,7 +2878,7 @@
     </row>
     <row r="9" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="43"/>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="54" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="48" t="s">
@@ -2878,10 +2887,10 @@
       <c r="D9" s="15">
         <v>1</v>
       </c>
-      <c r="E9" s="62">
+      <c r="E9" s="61">
         <v>44482</v>
       </c>
-      <c r="F9" s="62">
+      <c r="F9" s="61">
         <v>44485</v>
       </c>
       <c r="G9" s="12"/>
@@ -2945,7 +2954,7 @@
     </row>
     <row r="10" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="43"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="54" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="48" t="s">
@@ -2954,10 +2963,10 @@
       <c r="D10" s="15">
         <v>1</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="61">
         <v>44487</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="61">
         <v>44490</v>
       </c>
       <c r="G10" s="12"/>
@@ -3021,7 +3030,7 @@
     </row>
     <row r="11" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="43"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="48" t="s">
@@ -3030,10 +3039,10 @@
       <c r="D11" s="15">
         <v>1</v>
       </c>
-      <c r="E11" s="62">
+      <c r="E11" s="61">
         <v>44489</v>
       </c>
-      <c r="F11" s="62">
+      <c r="F11" s="61">
         <v>44490</v>
       </c>
       <c r="G11" s="12"/>
@@ -3099,7 +3108,7 @@
       <c r="A12" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="54" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="48" t="s">
@@ -3108,10 +3117,10 @@
       <c r="D12" s="15">
         <v>1</v>
       </c>
-      <c r="E12" s="62">
+      <c r="E12" s="61">
         <v>44482</v>
       </c>
-      <c r="F12" s="62">
+      <c r="F12" s="61">
         <v>44490</v>
       </c>
       <c r="G12" s="12"/>
@@ -3185,8 +3194,8 @@
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="17"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="63"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12" t="str">
         <f t="shared" si="5"/>
@@ -3251,19 +3260,19 @@
     </row>
     <row r="14" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="43"/>
-      <c r="B14" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="82" t="s">
+      <c r="B14" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="80" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="18">
-        <v>0</v>
-      </c>
-      <c r="E14" s="65">
+        <v>1</v>
+      </c>
+      <c r="E14" s="64">
         <v>44491</v>
       </c>
-      <c r="F14" s="65">
+      <c r="F14" s="64">
         <v>44511</v>
       </c>
       <c r="G14" s="12"/>
@@ -3330,19 +3339,19 @@
     </row>
     <row r="15" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="43"/>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="80" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="65">
+        <v>1</v>
+      </c>
+      <c r="E15" s="64">
         <v>44491</v>
       </c>
-      <c r="F15" s="65">
+      <c r="F15" s="64">
         <v>44511</v>
       </c>
       <c r="G15" s="12"/>
@@ -3406,19 +3415,19 @@
     </row>
     <row r="16" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="43"/>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="80" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="65">
+        <v>1</v>
+      </c>
+      <c r="E16" s="64">
         <v>44491</v>
       </c>
-      <c r="F16" s="65">
+      <c r="F16" s="64">
         <v>44511</v>
       </c>
       <c r="G16" s="12"/>
@@ -3482,19 +3491,19 @@
     </row>
     <row r="17" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="43"/>
-      <c r="B17" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="82" t="s">
-        <v>61</v>
+      <c r="B17" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>58</v>
       </c>
       <c r="D17" s="18">
-        <v>0</v>
-      </c>
-      <c r="E17" s="65">
+        <v>1</v>
+      </c>
+      <c r="E17" s="64">
         <v>44491</v>
       </c>
-      <c r="F17" s="65">
+      <c r="F17" s="64">
         <v>44511</v>
       </c>
       <c r="G17" s="12"/>
@@ -3558,19 +3567,19 @@
     </row>
     <row r="18" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="43"/>
-      <c r="B18" s="81" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="82" t="s">
-        <v>61</v>
+      <c r="B18" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>58</v>
       </c>
       <c r="D18" s="18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="65">
+        <v>1</v>
+      </c>
+      <c r="E18" s="64">
         <v>44491</v>
       </c>
-      <c r="F18" s="65">
+      <c r="F18" s="64">
         <v>44511</v>
       </c>
       <c r="G18" s="12"/>
@@ -3634,19 +3643,19 @@
     </row>
     <row r="19" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="42"/>
-      <c r="B19" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="83">
-        <v>0</v>
-      </c>
-      <c r="E19" s="84">
+      <c r="B19" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="81">
+        <v>1</v>
+      </c>
+      <c r="E19" s="82">
         <v>44491</v>
       </c>
-      <c r="F19" s="84">
+      <c r="F19" s="82">
         <v>44511</v>
       </c>
       <c r="G19" s="12"/>
@@ -3710,19 +3719,19 @@
     </row>
     <row r="20" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42"/>
-      <c r="B20" s="81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>71</v>
+      <c r="B20" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>68</v>
       </c>
       <c r="D20" s="18">
         <v>1</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="64">
         <v>44491</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="64">
         <v>44511</v>
       </c>
       <c r="G20" s="12"/>
@@ -3786,19 +3795,19 @@
     </row>
     <row r="21" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="42"/>
-      <c r="B21" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="82" t="s">
+      <c r="B21" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="80" t="s">
         <v>39</v>
       </c>
       <c r="D21" s="18">
         <v>1</v>
       </c>
-      <c r="E21" s="65">
+      <c r="E21" s="64">
         <v>44491</v>
       </c>
-      <c r="F21" s="65">
+      <c r="F21" s="64">
         <v>44511</v>
       </c>
       <c r="G21" s="12"/>
@@ -3862,19 +3871,19 @@
     </row>
     <row r="22" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="42"/>
-      <c r="B22" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="82" t="s">
-        <v>62</v>
+      <c r="B22" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>59</v>
       </c>
       <c r="D22" s="18">
-        <v>0</v>
-      </c>
-      <c r="E22" s="65">
+        <v>1</v>
+      </c>
+      <c r="E22" s="64">
         <v>44491</v>
       </c>
-      <c r="F22" s="65">
+      <c r="F22" s="64">
         <v>44511</v>
       </c>
       <c r="G22" s="12"/>
@@ -3938,19 +3947,19 @@
     </row>
     <row r="23" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="42"/>
-      <c r="B23" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="82" t="s">
-        <v>62</v>
+      <c r="B23" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>59</v>
       </c>
       <c r="D23" s="18">
-        <v>0</v>
-      </c>
-      <c r="E23" s="65">
+        <v>1</v>
+      </c>
+      <c r="E23" s="64">
         <v>44491</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="64">
         <v>44511</v>
       </c>
       <c r="G23" s="12"/>
@@ -4014,19 +4023,19 @@
     </row>
     <row r="24" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="42"/>
-      <c r="B24" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" s="82" t="s">
+      <c r="B24" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="80" t="s">
         <v>39</v>
       </c>
       <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="65">
+        <v>1</v>
+      </c>
+      <c r="E24" s="64">
         <v>44491</v>
       </c>
-      <c r="F24" s="65">
+      <c r="F24" s="64">
         <v>44511</v>
       </c>
       <c r="G24" s="12"/>
@@ -4090,19 +4099,19 @@
     </row>
     <row r="25" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="42"/>
-      <c r="B25" s="81" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="82" t="s">
+      <c r="B25" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="80" t="s">
         <v>45</v>
       </c>
       <c r="D25" s="18">
-        <v>0</v>
-      </c>
-      <c r="E25" s="65">
+        <v>1</v>
+      </c>
+      <c r="E25" s="64">
         <v>44491</v>
       </c>
-      <c r="F25" s="65">
+      <c r="F25" s="64">
         <v>44511</v>
       </c>
       <c r="G25" s="12"/>
@@ -4169,12 +4178,12 @@
         <v>9</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="67"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="12"/>
       <c r="H26" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4239,17 +4248,19 @@
     </row>
     <row r="27" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42"/>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="51"/>
+      <c r="C27" s="95" t="s">
+        <v>38</v>
+      </c>
       <c r="D27" s="21">
         <v>0</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="67">
         <v>44512</v>
       </c>
-      <c r="F27" s="68">
+      <c r="F27" s="67">
         <v>44546</v>
       </c>
       <c r="G27" s="12"/>
@@ -4316,17 +4327,19 @@
     </row>
     <row r="28" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="42"/>
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="51"/>
+      <c r="C28" s="95" t="s">
+        <v>45</v>
+      </c>
       <c r="D28" s="21">
         <v>0</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="67">
         <v>44512</v>
       </c>
-      <c r="F28" s="68">
+      <c r="F28" s="67">
         <v>44546</v>
       </c>
       <c r="G28" s="12"/>
@@ -4393,17 +4406,19 @@
     </row>
     <row r="29" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="42"/>
-      <c r="B29" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="51"/>
+      <c r="B29" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>58</v>
+      </c>
       <c r="D29" s="21">
         <v>0</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="67">
         <v>44512</v>
       </c>
-      <c r="F29" s="68">
+      <c r="F29" s="67">
         <v>44546</v>
       </c>
       <c r="G29" s="12"/>
@@ -4470,17 +4485,19 @@
     </row>
     <row r="30" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="42"/>
-      <c r="B30" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="51"/>
+      <c r="B30" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="95" t="s">
+        <v>59</v>
+      </c>
       <c r="D30" s="21">
         <v>0</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="67">
         <v>44512</v>
       </c>
-      <c r="F30" s="68">
+      <c r="F30" s="67">
         <v>44546</v>
       </c>
       <c r="G30" s="12"/>
@@ -4544,17 +4561,19 @@
     </row>
     <row r="31" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="42"/>
-      <c r="B31" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="51"/>
+      <c r="B31" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="95" t="s">
+        <v>39</v>
+      </c>
       <c r="D31" s="21">
         <v>0</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="67">
         <v>44512</v>
       </c>
-      <c r="F31" s="68">
+      <c r="F31" s="67">
         <v>44546</v>
       </c>
       <c r="G31" s="12"/>
@@ -4621,12 +4640,12 @@
         <v>9</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="52"/>
+        <v>56</v>
+      </c>
+      <c r="C32" s="51"/>
       <c r="D32" s="23"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="70"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="str">
         <f t="shared" si="5"/>
@@ -4691,17 +4710,17 @@
     </row>
     <row r="33" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
-      <c r="B33" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79">
+      <c r="B33" s="94" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="76"/>
+      <c r="D33" s="77">
         <v>0</v>
       </c>
-      <c r="E33" s="80">
+      <c r="E33" s="78">
         <v>44547</v>
       </c>
-      <c r="F33" s="80">
+      <c r="F33" s="78">
         <v>44588</v>
       </c>
       <c r="G33" s="12"/>
@@ -4768,24 +4787,15 @@
     </row>
     <row r="34" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
-      <c r="B34" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79">
-        <v>0</v>
-      </c>
-      <c r="E34" s="80">
-        <v>44547</v>
-      </c>
-      <c r="F34" s="80">
-        <v>44588</v>
-      </c>
+      <c r="B34" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="76"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="12">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
+      <c r="H34" s="12"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
       <c r="K34" s="29"/>
@@ -4845,17 +4855,17 @@
     </row>
     <row r="35" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="42"/>
-      <c r="B35" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79">
+      <c r="B35" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77">
         <v>0</v>
       </c>
-      <c r="E35" s="80">
+      <c r="E35" s="78">
         <v>44547</v>
       </c>
-      <c r="F35" s="80">
+      <c r="F35" s="78">
         <v>44588</v>
       </c>
       <c r="G35" s="12"/>
@@ -4922,17 +4932,17 @@
     </row>
     <row r="36" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="42"/>
-      <c r="B36" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79">
+      <c r="B36" s="94" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="76"/>
+      <c r="D36" s="77">
         <v>0</v>
       </c>
-      <c r="E36" s="80">
+      <c r="E36" s="78">
         <v>44547</v>
       </c>
-      <c r="F36" s="80">
+      <c r="F36" s="78">
         <v>44588</v>
       </c>
       <c r="G36" s="12"/>
@@ -4999,17 +5009,17 @@
     </row>
     <row r="37" spans="1:64" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="42"/>
-      <c r="B37" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="53"/>
+      <c r="B37" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="52"/>
       <c r="D37" s="24">
         <v>0</v>
       </c>
-      <c r="E37" s="80">
+      <c r="E37" s="78">
         <v>44547</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="78">
         <v>44588</v>
       </c>
       <c r="G37" s="12"/>
@@ -5078,11 +5088,11 @@
       <c r="A38" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="54"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="11"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
       <c r="G38" s="12"/>
       <c r="H38" s="12" t="str">
         <f t="shared" si="5"/>
@@ -5154,8 +5164,8 @@
       </c>
       <c r="C39" s="26"/>
       <c r="D39" s="27"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="73"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="72"/>
       <c r="G39" s="28"/>
       <c r="H39" s="28" t="str">
         <f t="shared" si="5"/>
@@ -5230,11 +5240,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="AK2:AQ2"/>
-    <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
     <mergeCell ref="E1:F1"/>
@@ -5242,6 +5247,11 @@
     <mergeCell ref="P2:V2"/>
     <mergeCell ref="W2:AC2"/>
     <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="AR2:AX2"/>
   </mergeCells>
   <conditionalFormatting sqref="D37:D39 D32 D5:D23 D26:D30">
     <cfRule type="dataBar" priority="18">
@@ -5270,7 +5280,7 @@
       <formula>AND(task_end&gt;=I$3,task_start&lt;J$3)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D35">
+  <conditionalFormatting sqref="D33:D36">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5280,20 +5290,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{F4F6ECBA-56F2-40E7-BC69-50DE4088154B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D36">
-    <cfRule type="dataBar" priority="3">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="0" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{836A1D7D-2623-4CA5-A848-84AB4FCB2080}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5368,22 +5364,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33:D35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{836A1D7D-2623-4CA5-A848-84AB4FCB2080}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>D36</xm:sqref>
+          <xm:sqref>D33:D36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{60326584-368A-4DC1-BE02-783B6804C060}">
